--- a/result/each_result.xlsx
+++ b/result/each_result.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="610" yWindow="490" windowWidth="6960" windowHeight="6000" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="113">
   <si>
     <t>no</t>
   </si>
@@ -336,28 +339,57 @@
   </si>
   <si>
     <t>흥국화재</t>
+  </si>
+  <si>
+    <t>(비어 있음)</t>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>행 레이블</t>
+  </si>
+  <si>
+    <t>합계 : invest_result</t>
+  </si>
+  <si>
+    <t>합계 : all_invest_result</t>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -372,27 +404,3850 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[each_result.xlsx]Sheet2!피벗 테이블1</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>합계 : all_invest_result</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$5:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>한국유리공업</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>두산</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>유수홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>효성</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>쌍용양회공업</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>롯데지주</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>동아쏘시오홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>휴스틸</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SPC삼립</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>기아자동차</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>진양산업</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>아세아</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>한진</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>태원물산</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>대한전선</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>대동공업</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>한국수출포장공업</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>BYC</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>DB손해보험</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>동양물산기업</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>동일방직</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>롯데손해보험</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>강남제비스코</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>NH투자증권</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CS홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>우리종금</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>태광산업</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>현대자동차</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>일동홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>대림통상</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>일양약품</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>대림산업</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>케이씨씨</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>벽산</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>유한양행</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>국제약품</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>CJ대한통운</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>LS네트웍스</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>삼성전자</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>전방</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>LG</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>부산주공</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>메리츠화재</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>코오롱</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>유유제약</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>대한항공</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>깨끗한나라</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>대웅</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>미래에셋대우</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>롯데칠성음료</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>롯데푸드</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>세기상사</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>대신증권</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>모나미</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>대한제분</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>한국주철관공업</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>알보젠코리아</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>금호전기</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>CJ</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>세아제강</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>한국제지</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>영진약품</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>대한방직</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>한국타이어월드와이드</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>삼성화재해상보험</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>LG상사</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>삼양홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>신일산업</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>한화손해보험</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>삼성제약</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>SG세계물산</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>하이트진로홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>카프로</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>한일현대시멘트</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>쌍용자동차</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>코리안리</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>NI스틸</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>신성통상</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>동화약품</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>대유플러스</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>노루홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>한진중공업홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>한솔홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>서울식품공업</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>경방</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>DB하이텍</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>한화케미칼</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>흥국화재</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>대상</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>일신방직</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>오리온홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>대한제당</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>아이에이치큐</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>아모레퍼시픽그룹</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>삼양식품</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>넥센타이어</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>제주은행</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>한일홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>엔피씨</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>롯데정밀화학</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>(비어 있음)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>13655378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12609159.175000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11935286.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11679845.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11467360.914999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11308336.255000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11127523.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11127421.852499999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11043730</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10930852.272500001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10813650.946249999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10804486</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10780442.800000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10672082.3035</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10606005.80425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10580835.668</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10519089.52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10516848.449999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10499322.800000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10488989.06425</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10487206.465</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10473182.605</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10456858.359999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10452319.227499999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10448889.779999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10386032.095899999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10381550.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10366004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10355731.887499999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10344868.895500001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10334635.4625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10291223.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10281139.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10279421.172</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10245840.675000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10229793.788000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10222668.800000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10219110.030999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10202905.175000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10195832.35</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10191946.119999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10190693.717499999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10186364.75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10175154.49</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10167672.835000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10162230.09</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10157950.214500001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10136873.800000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10136148.808</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10136124.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10135196.800000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10100884.85</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10088566.1875</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10083086.00275</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10051303</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10047951.645</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10022175.977499999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10020878.354</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10003916.449999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9981598.8900000025</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9967042.4049999993</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9967018.5460000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9967013.1999999993</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9939644.375</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9930637.9499999993</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9853403.9800000023</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9820637.9499999993</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9817674.6749999989</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9789850.5430000015</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9788230.8444999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9786641.9160999991</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9780847.0075000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9766544.5504999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9763591.7550000008</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9762259.4534999989</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9728785.1900000013</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9699452.3899999987</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9687535.9074999988</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9662426.1774999984</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9637922.81855</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9618615.1150000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9618478.7112500016</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9569894.1384999994</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9557336.5903000012</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9525595.1500000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9477249.5749999993</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9433200.0250000022</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9407107.1119999979</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9360129.0925000012</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9324110.9499999993</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9273425.7599999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9272958.3550000004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9245127.4399999995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9161748.4800000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9098602.0299999993</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9029961</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9005346.0649999995</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8861927.6799999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8815586.09375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8397654.4000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>합계 : invest_result</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$5:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>한국유리공업</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>두산</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>유수홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>효성</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>쌍용양회공업</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>롯데지주</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>동아쏘시오홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>휴스틸</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SPC삼립</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>기아자동차</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>진양산업</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>아세아</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>한진</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>태원물산</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>대한전선</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>대동공업</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>한국수출포장공업</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>BYC</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>DB손해보험</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>동양물산기업</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>동일방직</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>롯데손해보험</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>강남제비스코</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>NH투자증권</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CS홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>우리종금</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>태광산업</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>현대자동차</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>일동홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>대림통상</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>일양약품</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>대림산업</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>케이씨씨</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>벽산</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>유한양행</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>국제약품</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>CJ대한통운</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>LS네트웍스</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>삼성전자</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>전방</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>LG</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>부산주공</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>메리츠화재</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>코오롱</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>유유제약</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>대한항공</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>깨끗한나라</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>대웅</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>미래에셋대우</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>롯데칠성음료</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>롯데푸드</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>세기상사</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>대신증권</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>모나미</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>대한제분</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>한국주철관공업</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>알보젠코리아</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>금호전기</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>CJ</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>세아제강</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>한국제지</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>영진약품</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>대한방직</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>한국타이어월드와이드</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>삼성화재해상보험</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>LG상사</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>삼양홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>신일산업</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>한화손해보험</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>삼성제약</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>SG세계물산</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>하이트진로홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>카프로</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>한일현대시멘트</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>쌍용자동차</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>코리안리</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>NI스틸</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>신성통상</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>동화약품</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>대유플러스</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>노루홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>한진중공업홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>한솔홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>서울식품공업</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>경방</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>DB하이텍</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>한화케미칼</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>흥국화재</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>대상</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>일신방직</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>오리온홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>대한제당</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>아이에이치큐</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>아모레퍼시픽그룹</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>삼양식품</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>넥센타이어</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>제주은행</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>한일홀딩스</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>엔피씨</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>롯데정밀화학</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>(비어 있음)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>9982803.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10430543.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12503795.384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10570830.528000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11308336.255000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10708971.550000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11357401.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10125048.574999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10525368</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10158448</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10606005.80425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10742578.842</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10317724.289999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10327583.845000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10504900.120750001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9782807.2000000011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10473182.605</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10354575.225</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10176992.800000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10172509.625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10355731.887499999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10367160.266000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10249139.365</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10003592.289999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10458501.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10279421.172</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10254933.025</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10292117.744000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10160809.775</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10219110.030999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10202905.175000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10195832.35</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10367456.875</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10190693.717499999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10076711.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9789030.1999999974</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10323911.24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10157950.214500001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10992037.404999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10235239.158</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9954697.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10318321.6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10200913.324999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10133088.41</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10234075.523</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10051303</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10115434.991</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10080773.215</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10020878.354</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9981598.8900000006</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10210362.237500001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9942073.6960000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9883975.5950000007</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9802577.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9930637.9499999993</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9888691.4550000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9993895.6499999985</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9817674.6749999989</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10150741.504000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9788230.8444999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10487980.276900001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9780847.0075000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9821361.0120000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10912359.835000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10131738.744999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9728785.1900000013</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10517379.96325</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9687535.9074999988</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10012093.26</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9637922.81855</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9931014.7050000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10197477.0655</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9779429.7559999991</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9557336.5903000012</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9525595.1500000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9532645.0524999984</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10052199.842499999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9407107.1119999979</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9775379.227500001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9533640.8499999978</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9273425.7599999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9626927.7575000022</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9354297.0399999991</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9354879.915000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9098602.0299999993</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9029961</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9847490.5739999991</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9134811.5699999984</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8815586.09375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8783960.8600000013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="219407872"/>
+        <c:axId val="211203136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="219407872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="211203136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="211203136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="219407872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="남인" refreshedDate="43371.852256365739" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="101">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="no" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="100" count="101">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="27"/>
+        <n v="28"/>
+        <n v="29"/>
+        <n v="30"/>
+        <n v="31"/>
+        <n v="32"/>
+        <n v="33"/>
+        <n v="34"/>
+        <n v="35"/>
+        <n v="36"/>
+        <n v="37"/>
+        <n v="38"/>
+        <n v="39"/>
+        <n v="40"/>
+        <n v="41"/>
+        <n v="42"/>
+        <n v="43"/>
+        <n v="44"/>
+        <n v="45"/>
+        <n v="46"/>
+        <n v="47"/>
+        <n v="48"/>
+        <n v="49"/>
+        <n v="50"/>
+        <n v="51"/>
+        <n v="52"/>
+        <n v="53"/>
+        <n v="54"/>
+        <n v="55"/>
+        <n v="56"/>
+        <n v="57"/>
+        <n v="58"/>
+        <n v="59"/>
+        <n v="60"/>
+        <n v="61"/>
+        <n v="62"/>
+        <n v="63"/>
+        <n v="64"/>
+        <n v="65"/>
+        <n v="66"/>
+        <n v="67"/>
+        <n v="68"/>
+        <n v="69"/>
+        <n v="70"/>
+        <n v="71"/>
+        <n v="72"/>
+        <n v="73"/>
+        <n v="74"/>
+        <n v="75"/>
+        <n v="76"/>
+        <n v="77"/>
+        <n v="78"/>
+        <n v="79"/>
+        <n v="80"/>
+        <n v="81"/>
+        <n v="82"/>
+        <n v="83"/>
+        <n v="84"/>
+        <n v="85"/>
+        <n v="86"/>
+        <n v="87"/>
+        <n v="88"/>
+        <n v="89"/>
+        <n v="90"/>
+        <n v="91"/>
+        <n v="92"/>
+        <n v="93"/>
+        <n v="94"/>
+        <n v="95"/>
+        <n v="96"/>
+        <n v="97"/>
+        <n v="98"/>
+        <n v="99"/>
+        <n v="100"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="code" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="20" maxValue="10050" count="101">
+        <n v="1040"/>
+        <n v="640"/>
+        <n v="400"/>
+        <n v="810"/>
+        <n v="3240"/>
+        <n v="970"/>
+        <n v="2320"/>
+        <n v="590"/>
+        <n v="4540"/>
+        <n v="6570"/>
+        <n v="300"/>
+        <n v="1070"/>
+        <n v="1440"/>
+        <n v="3230"/>
+        <n v="2790"/>
+        <n v="3560"/>
+        <n v="3520"/>
+        <n v="100"/>
+        <n v="3300"/>
+        <n v="120"/>
+        <n v="50"/>
+        <n v="2720"/>
+        <n v="2350"/>
+        <n v="2020"/>
+        <n v="2200"/>
+        <n v="4150"/>
+        <n v="990"/>
+        <n v="680"/>
+        <n v="5940"/>
+        <n v="8260"/>
+        <n v="5610"/>
+        <n v="1130"/>
+        <n v="4000"/>
+        <n v="4990"/>
+        <n v="2270"/>
+        <n v="5030"/>
+        <n v="5930"/>
+        <n v="1360"/>
+        <n v="2420"/>
+        <n v="3030"/>
+        <n v="5390"/>
+        <n v="2030"/>
+        <n v="2380"/>
+        <n v="3480"/>
+        <n v="3550"/>
+        <n v="1530"/>
+        <n v="5360"/>
+        <n v="7210"/>
+        <n v="70"/>
+        <n v="3620"/>
+        <n v="4250"/>
+        <n v="220"/>
+        <n v="230"/>
+        <n v="3690"/>
+        <n v="1420"/>
+        <n v="9830"/>
+        <n v="5830"/>
+        <n v="270"/>
+        <n v="3090"/>
+        <n v="3490"/>
+        <n v="60"/>
+        <n v="4410"/>
+        <n v="950"/>
+        <n v="2000"/>
+        <n v="240"/>
+        <n v="5010"/>
+        <n v="1120"/>
+        <n v="4060"/>
+        <n v="490"/>
+        <n v="20"/>
+        <n v="150"/>
+        <n v="3410"/>
+        <n v="2250"/>
+        <n v="1800"/>
+        <n v="700"/>
+        <n v="7570"/>
+        <n v="3780"/>
+        <n v="140"/>
+        <n v="2300"/>
+        <n v="370"/>
+        <n v="5380"/>
+        <n v="1460"/>
+        <n v="860"/>
+        <n v="1210"/>
+        <n v="320"/>
+        <n v="210"/>
+        <n v="1680"/>
+        <n v="3540"/>
+        <n v="1790"/>
+        <n v="2900"/>
+        <n v="5300"/>
+        <n v="6800"/>
+        <n v="2700"/>
+        <n v="10050"/>
+        <n v="3200"/>
+        <n v="6220"/>
+        <n v="6380"/>
+        <n v="6390"/>
+        <n v="4800"/>
+        <n v="540"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="name" numFmtId="0">
+      <sharedItems containsBlank="1" count="101">
+        <s v="CJ"/>
+        <s v="동아쏘시오홀딩스"/>
+        <s v="롯데손해보험"/>
+        <s v="삼성화재해상보험"/>
+        <s v="태광산업"/>
+        <s v="한국주철관공업"/>
+        <s v="한진"/>
+        <s v="CS홀딩스"/>
+        <s v="깨끗한나라"/>
+        <s v="대림통상"/>
+        <s v="대유플러스"/>
+        <s v="대한방직"/>
+        <s v="대한전선"/>
+        <s v="삼양식품"/>
+        <s v="아모레퍼시픽그룹"/>
+        <s v="아이에이치큐"/>
+        <s v="영진약품"/>
+        <s v="유한양행"/>
+        <s v="한일홀딩스"/>
+        <s v="CJ대한통운"/>
+        <s v="경방"/>
+        <s v="국제약품"/>
+        <s v="넥센타이어"/>
+        <s v="코오롱"/>
+        <s v="한국수출포장공업"/>
+        <s v="한솔홀딩스"/>
+        <s v="DB하이텍"/>
+        <s v="LS네트웍스"/>
+        <s v="NH투자증권"/>
+        <s v="NI스틸"/>
+        <s v="SPC삼립"/>
+        <s v="대한제분"/>
+        <s v="롯데정밀화학"/>
+        <s v="롯데지주"/>
+        <s v="롯데푸드"/>
+        <s v="부산주공"/>
+        <s v="삼성전자"/>
+        <s v="삼성제약"/>
+        <s v="세기상사"/>
+        <s v="세아제강"/>
+        <s v="신성통상"/>
+        <s v="아세아"/>
+        <s v="케이씨씨"/>
+        <s v="한진중공업홀딩스"/>
+        <s v="LG"/>
+        <s v="동일방직"/>
+        <s v="모나미"/>
+        <s v="벽산"/>
+        <s v="삼양홀딩스"/>
+        <s v="쌍용자동차"/>
+        <s v="엔피씨"/>
+        <s v="유유제약"/>
+        <s v="일동홀딩스"/>
+        <s v="코리안리"/>
+        <s v="태원물산"/>
+        <s v="한화케미칼"/>
+        <s v="DB손해보험"/>
+        <s v="기아자동차"/>
+        <s v="대웅"/>
+        <s v="대한항공"/>
+        <s v="메리츠화재"/>
+        <s v="서울식품공업"/>
+        <s v="전방"/>
+        <s v="한국유리공업"/>
+        <s v="한국타이어월드와이드"/>
+        <s v="휴스틸"/>
+        <s v="LG상사"/>
+        <s v="SG세계물산"/>
+        <s v="대동공업"/>
+        <s v="동화약품"/>
+        <s v="두산"/>
+        <s v="쌍용양회공업"/>
+        <s v="알보젠코리아"/>
+        <s v="오리온홀딩스"/>
+        <s v="유수홀딩스"/>
+        <s v="일양약품"/>
+        <s v="진양산업"/>
+        <s v="하이트진로홀딩스"/>
+        <s v="한국제지"/>
+        <s v="한화손해보험"/>
+        <s v="현대자동차"/>
+        <s v="BYC"/>
+        <s v="강남제비스코"/>
+        <s v="금호전기"/>
+        <s v="노루홀딩스"/>
+        <s v="대림산업"/>
+        <s v="대상"/>
+        <s v="대신증권"/>
+        <s v="대한제당"/>
+        <s v="동양물산기업"/>
+        <s v="롯데칠성음료"/>
+        <s v="미래에셋대우"/>
+        <s v="신일산업"/>
+        <s v="우리종금"/>
+        <s v="일신방직"/>
+        <s v="제주은행"/>
+        <s v="카프로"/>
+        <s v="한일현대시멘트"/>
+        <s v="효성"/>
+        <s v="흥국화재"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="rmse" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3.049279330298305E-3" maxValue="8.6210742592811584E-2" count="101">
+        <n v="4.0540505200624473E-2"/>
+        <n v="5.7473950088024139E-2"/>
+        <n v="6.8852691911160946E-3"/>
+        <n v="3.0147364363074299E-2"/>
+        <n v="2.0161952823400501E-2"/>
+        <n v="1.8392089754343029E-2"/>
+        <n v="4.2786635458469391E-2"/>
+        <n v="1.1250819079577919E-2"/>
+        <n v="7.5104185380041599E-3"/>
+        <n v="1.2910519726574419E-2"/>
+        <n v="1.4827834442257879E-2"/>
+        <n v="4.924299567937851E-2"/>
+        <n v="1.9206622615456581E-2"/>
+        <n v="3.7077721208333969E-2"/>
+        <n v="3.7364620715379708E-2"/>
+        <n v="9.7188800573348999E-3"/>
+        <n v="4.2313873767852783E-2"/>
+        <n v="4.0225248783826828E-2"/>
+        <n v="8.6210742592811584E-2"/>
+        <n v="6.7084088921546936E-2"/>
+        <n v="5.0095818936824799E-2"/>
+        <n v="1.253457088023424E-2"/>
+        <n v="1.090874243527651E-2"/>
+        <n v="5.7342216372489929E-2"/>
+        <n v="3.7722848355770111E-2"/>
+        <n v="1.6292782500386242E-2"/>
+        <n v="2.9272370040416721E-2"/>
+        <n v="1.051755622029305E-2"/>
+        <n v="2.1629450842738152E-2"/>
+        <n v="5.8111413381993771E-3"/>
+        <n v="4.0880158543586731E-2"/>
+        <n v="3.9053652435541153E-2"/>
+        <n v="3.3492743968963623E-2"/>
+        <n v="4.3119102716445923E-2"/>
+        <n v="5.4977118968963623E-2"/>
+        <n v="1.8642734736204151E-2"/>
+        <n v="6.2190838158130653E-2"/>
+        <n v="4.8323918133974082E-2"/>
+        <n v="6.315205991268158E-2"/>
+        <n v="4.1250739246606827E-2"/>
+        <n v="2.9695600271224979E-2"/>
+        <n v="4.257265105843544E-2"/>
+        <n v="3.4079492092132568E-2"/>
+        <n v="4.4224364683032036E-3"/>
+        <n v="2.7988249436020851E-2"/>
+        <n v="4.6579480171203613E-2"/>
+        <n v="5.0097443163394928E-3"/>
+        <n v="2.5520393624901772E-2"/>
+        <n v="4.5484822243452072E-2"/>
+        <n v="1.6501083970069889E-2"/>
+        <n v="1.493721920996904E-2"/>
+        <n v="1.464543119072914E-2"/>
+        <n v="4.6470262110233307E-2"/>
+        <n v="8.3434032276272774E-3"/>
+        <n v="1.086448412388563E-2"/>
+        <n v="2.6822507381439209E-2"/>
+        <n v="3.2067473977804177E-2"/>
+        <n v="2.2926464676856991E-2"/>
+        <n v="4.5013759285211563E-2"/>
+        <n v="2.2002693265676498E-2"/>
+        <n v="1.059227995574474E-2"/>
+        <n v="4.8207021318376064E-3"/>
+        <n v="5.4120831191539757E-2"/>
+        <n v="2.4180516600608829E-2"/>
+        <n v="1.5985675156116489E-2"/>
+        <n v="2.1692974492907521E-2"/>
+        <n v="2.9556861147284511E-2"/>
+        <n v="1.832926832139492E-2"/>
+        <n v="2.204905636608601E-2"/>
+        <n v="5.9634107165038594E-3"/>
+        <n v="2.2128451615571979E-2"/>
+        <n v="5.3752895444631577E-2"/>
+        <n v="4.2435556650161743E-2"/>
+        <n v="7.0409618318080902E-2"/>
+        <n v="2.0289041101932529E-2"/>
+        <n v="2.8260992839932442E-2"/>
+        <n v="4.798811674118042E-2"/>
+        <n v="1.0799583978950981E-2"/>
+        <n v="1.986024342477322E-2"/>
+        <n v="1.209524646401405E-2"/>
+        <n v="2.9077243059873581E-2"/>
+        <n v="3.6072026938199997E-2"/>
+        <n v="2.774220705032349E-2"/>
+        <n v="4.8250135034322739E-2"/>
+        <n v="3.5988491028547287E-2"/>
+        <n v="2.072453685104847E-2"/>
+        <n v="4.0628626942634583E-2"/>
+        <n v="1.687572151422501E-2"/>
+        <n v="1.7799027264118191E-2"/>
+        <n v="2.646516636013985E-2"/>
+        <n v="5.2302956581115723E-2"/>
+        <n v="2.0374177023768422E-2"/>
+        <n v="7.3386700823903084E-3"/>
+        <n v="4.9342871643602848E-3"/>
+        <n v="3.4608442336320877E-2"/>
+        <n v="3.7754993885755539E-2"/>
+        <n v="3.049279330298305E-3"/>
+        <n v="7.5009278953075409E-2"/>
+        <n v="8.3491884171962738E-2"/>
+        <n v="9.737309068441391E-3"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="invest_result" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="8783960.8600000013" maxValue="12503795.384" count="92">
+        <n v="10000000"/>
+        <n v="10708971.550000001"/>
+        <n v="10473182.605"/>
+        <n v="9930637.9499999993"/>
+        <n v="10176992.800000001"/>
+        <n v="10115434.991"/>
+        <n v="10158448"/>
+        <n v="10354575.225"/>
+        <n v="10157950.214500001"/>
+        <n v="10367160.266000001"/>
+        <n v="9637922.81855"/>
+        <n v="9883975.5950000007"/>
+        <n v="10606005.80425"/>
+        <n v="9098602.0299999993"/>
+        <n v="9354879.915000001"/>
+        <n v="9354297.0399999991"/>
+        <n v="9942073.6960000005"/>
+        <n v="10254933.025"/>
+        <n v="9134811.5699999984"/>
+        <n v="10160809.775"/>
+        <n v="9525595.1500000004"/>
+        <n v="10292117.744000001"/>
+        <n v="9029961"/>
+        <n v="9789030.1999999974"/>
+        <n v="10317724.289999999"/>
+        <n v="9779429.7559999991"/>
+        <n v="9532645.0524999984"/>
+        <n v="10219110.030999999"/>
+        <n v="10517379.96325"/>
+        <n v="10051303"/>
+        <n v="8783960.8600000013"/>
+        <n v="11308336.255000001"/>
+        <n v="10318321.6"/>
+        <n v="10190693.717499999"/>
+        <n v="10202905.175000001"/>
+        <n v="9788230.8444999997"/>
+        <n v="10200913.324999999"/>
+        <n v="9981598.8900000006"/>
+        <n v="9687535.9074999988"/>
+        <n v="10525368"/>
+        <n v="10458501.25"/>
+        <n v="10197477.0655"/>
+        <n v="10367456.875"/>
+        <n v="9782807.2000000011"/>
+        <n v="10234075.523"/>
+        <n v="10279421.172"/>
+        <n v="9993895.6499999985"/>
+        <n v="10131738.744999999"/>
+        <n v="8815586.09375"/>
+        <n v="10355731.887499999"/>
+        <n v="9728785.1900000013"/>
+        <n v="10052199.842499999"/>
+        <n v="10327583.845000001"/>
+        <n v="10125048.574999999"/>
+        <n v="10992037.404999999"/>
+        <n v="10323911.24"/>
+        <n v="10076711.25"/>
+        <n v="9557336.5903000012"/>
+        <n v="10195832.35"/>
+        <n v="9982803.125"/>
+        <n v="9802577.5"/>
+        <n v="11357401.25"/>
+        <n v="9888691.4550000001"/>
+        <n v="10487980.276900001"/>
+        <n v="10742578.842"/>
+        <n v="10012093.26"/>
+        <n v="10430543.5"/>
+        <n v="10570830.528000001"/>
+        <n v="10080773.215"/>
+        <n v="9273425.7599999998"/>
+        <n v="12503795.384"/>
+        <n v="10249139.365"/>
+        <n v="9780847.0075000003"/>
+        <n v="10210362.237500001"/>
+        <n v="10150741.504000001"/>
+        <n v="10172509.625"/>
+        <n v="10020878.354"/>
+        <n v="9931014.7050000001"/>
+        <n v="10003592.289999999"/>
+        <n v="9775379.227500001"/>
+        <n v="10133088.41"/>
+        <n v="9626927.7575000022"/>
+        <n v="10504900.120750001"/>
+        <n v="9954697.4000000004"/>
+        <n v="10235239.158"/>
+        <n v="9817674.6749999989"/>
+        <n v="9533640.8499999978"/>
+        <n v="9847490.5739999991"/>
+        <n v="9821361.0120000001"/>
+        <n v="10912359.835000001"/>
+        <n v="9407107.1119999979"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="all_invest_result" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="8397654.4000000004" maxValue="13655378"/>
+    </cacheField>
+    <cacheField name="train_cnt" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="136"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="101">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10003916.449999999"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="11127523.15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="10473182.605"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="9930637.9499999993"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="10381550.5"/>
+    <n v="136"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="10047951.645"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="10780442.800000001"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="10448889.779999999"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="10157950.214500001"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="10344868.895500001"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="9637922.81855"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="9967013.1999999993"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <n v="10606005.80425"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="9098602.0299999993"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <n v="9161748.4800000004"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="9245127.4399999995"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="9967018.5460000001"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <n v="10245840.675000001"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <n v="8861927.6799999997"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <n v="10222668.800000001"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <n v="9525595.1500000004"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <n v="10229793.788000001"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <n v="9029961"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <n v="10175154.49"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <n v="10519089.52"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <n v="9569894.1384999994"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <n v="9477249.5749999993"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <n v="10219110.030999999"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="10452319.227499999"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="28"/>
+    <n v="9699452.3899999987"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="11043730"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="29"/>
+    <n v="10051303"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="30"/>
+    <n v="8397654.4000000004"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="31"/>
+    <n v="11308336.255000001"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="32"/>
+    <n v="10135196.800000001"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="33"/>
+    <n v="10190693.717499999"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="34"/>
+    <n v="10202905.175000001"/>
+    <n v="114"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="35"/>
+    <n v="9788230.8444999997"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="36"/>
+    <n v="10100884.85"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="37"/>
+    <n v="9981598.8900000025"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="38"/>
+    <n v="9687535.9074999988"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="39"/>
+    <n v="10804486"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="40"/>
+    <n v="10281139.75"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="41"/>
+    <n v="9618478.7112500016"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="42"/>
+    <n v="10191946.119999999"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="45"/>
+    <x v="45"/>
+    <x v="45"/>
+    <x v="43"/>
+    <n v="10487206.465"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="46"/>
+    <x v="46"/>
+    <x v="46"/>
+    <x v="44"/>
+    <n v="10083086.00275"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="47"/>
+    <x v="47"/>
+    <x v="47"/>
+    <x v="45"/>
+    <n v="10279421.172"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="46"/>
+    <n v="9820637.9499999993"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="49"/>
+    <x v="49"/>
+    <x v="49"/>
+    <x v="47"/>
+    <n v="9762259.4534999989"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="50"/>
+    <x v="50"/>
+    <x v="50"/>
+    <x v="48"/>
+    <n v="8815586.09375"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="51"/>
+    <x v="51"/>
+    <x v="51"/>
+    <x v="0"/>
+    <n v="10167672.835000001"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="49"/>
+    <n v="10355731.887499999"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="53"/>
+    <x v="53"/>
+    <x v="53"/>
+    <x v="50"/>
+    <n v="9728785.1900000013"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="54"/>
+    <x v="54"/>
+    <x v="54"/>
+    <x v="0"/>
+    <n v="10672082.3035"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="55"/>
+    <x v="55"/>
+    <x v="55"/>
+    <x v="51"/>
+    <n v="9433200.0250000022"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="56"/>
+    <x v="56"/>
+    <x v="56"/>
+    <x v="52"/>
+    <n v="10499322.800000001"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="57"/>
+    <x v="57"/>
+    <x v="57"/>
+    <x v="53"/>
+    <n v="10930852.272500001"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="58"/>
+    <x v="58"/>
+    <x v="58"/>
+    <x v="54"/>
+    <n v="10136873.800000001"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="59"/>
+    <x v="59"/>
+    <x v="59"/>
+    <x v="55"/>
+    <n v="10162230.09"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="60"/>
+    <x v="60"/>
+    <x v="60"/>
+    <x v="56"/>
+    <n v="10186364.75"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="61"/>
+    <x v="61"/>
+    <x v="61"/>
+    <x v="57"/>
+    <n v="9557336.5903000012"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="62"/>
+    <x v="62"/>
+    <x v="62"/>
+    <x v="58"/>
+    <n v="10195832.35"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="63"/>
+    <x v="63"/>
+    <x v="63"/>
+    <x v="59"/>
+    <n v="13655378"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="64"/>
+    <x v="64"/>
+    <x v="64"/>
+    <x v="60"/>
+    <n v="9939644.375"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="65"/>
+    <x v="65"/>
+    <x v="65"/>
+    <x v="61"/>
+    <n v="11127421.852499999"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="66"/>
+    <x v="66"/>
+    <x v="66"/>
+    <x v="62"/>
+    <n v="9853403.9800000023"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="67"/>
+    <x v="67"/>
+    <x v="67"/>
+    <x v="63"/>
+    <n v="9786641.9160999991"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="68"/>
+    <x v="68"/>
+    <x v="68"/>
+    <x v="64"/>
+    <n v="10580835.668"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="69"/>
+    <x v="69"/>
+    <x v="69"/>
+    <x v="65"/>
+    <n v="9662426.1774999984"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="70"/>
+    <x v="70"/>
+    <x v="70"/>
+    <x v="66"/>
+    <n v="12609159.175000001"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="71"/>
+    <x v="71"/>
+    <x v="71"/>
+    <x v="67"/>
+    <n v="11467360.914999999"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="72"/>
+    <x v="72"/>
+    <x v="72"/>
+    <x v="68"/>
+    <n v="10022175.977499999"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="73"/>
+    <x v="73"/>
+    <x v="73"/>
+    <x v="69"/>
+    <n v="9273425.7599999998"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="74"/>
+    <x v="74"/>
+    <x v="74"/>
+    <x v="70"/>
+    <n v="11935286.43"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="75"/>
+    <x v="75"/>
+    <x v="75"/>
+    <x v="71"/>
+    <n v="10334635.4625"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="76"/>
+    <x v="76"/>
+    <x v="76"/>
+    <x v="0"/>
+    <n v="10813650.946249999"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="77"/>
+    <x v="77"/>
+    <x v="77"/>
+    <x v="72"/>
+    <n v="9780847.0075000003"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="78"/>
+    <x v="78"/>
+    <x v="78"/>
+    <x v="73"/>
+    <n v="9967042.4049999993"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="79"/>
+    <x v="79"/>
+    <x v="79"/>
+    <x v="74"/>
+    <n v="9789850.5430000015"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="80"/>
+    <x v="80"/>
+    <x v="80"/>
+    <x v="75"/>
+    <n v="10366004"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="81"/>
+    <x v="81"/>
+    <x v="81"/>
+    <x v="0"/>
+    <n v="10516848.449999999"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="82"/>
+    <x v="82"/>
+    <x v="82"/>
+    <x v="0"/>
+    <n v="10456858.359999999"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="83"/>
+    <x v="83"/>
+    <x v="83"/>
+    <x v="76"/>
+    <n v="10020878.354"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="84"/>
+    <x v="84"/>
+    <x v="84"/>
+    <x v="77"/>
+    <n v="9618615.1150000002"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="85"/>
+    <x v="85"/>
+    <x v="85"/>
+    <x v="78"/>
+    <n v="10291223.75"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="86"/>
+    <x v="86"/>
+    <x v="86"/>
+    <x v="79"/>
+    <n v="9360129.0925000012"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="87"/>
+    <x v="87"/>
+    <x v="87"/>
+    <x v="80"/>
+    <n v="10088566.1875"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="88"/>
+    <x v="88"/>
+    <x v="88"/>
+    <x v="81"/>
+    <n v="9272958.3550000004"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="89"/>
+    <x v="89"/>
+    <x v="89"/>
+    <x v="82"/>
+    <n v="10488989.06425"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="90"/>
+    <x v="90"/>
+    <x v="90"/>
+    <x v="83"/>
+    <n v="10136124.1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="91"/>
+    <x v="91"/>
+    <x v="91"/>
+    <x v="84"/>
+    <n v="10136148.808"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="92"/>
+    <x v="92"/>
+    <x v="92"/>
+    <x v="85"/>
+    <n v="9817674.6749999989"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="93"/>
+    <x v="93"/>
+    <x v="93"/>
+    <x v="0"/>
+    <n v="10386032.095899999"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="94"/>
+    <x v="94"/>
+    <x v="94"/>
+    <x v="86"/>
+    <n v="9324110.9499999993"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="95"/>
+    <x v="95"/>
+    <x v="95"/>
+    <x v="87"/>
+    <n v="9005346.0649999995"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="96"/>
+    <x v="96"/>
+    <x v="96"/>
+    <x v="88"/>
+    <n v="9766544.5504999999"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="97"/>
+    <x v="97"/>
+    <x v="97"/>
+    <x v="89"/>
+    <n v="9763591.7550000008"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="98"/>
+    <x v="98"/>
+    <x v="98"/>
+    <x v="0"/>
+    <n v="11679845.42"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="99"/>
+    <x v="99"/>
+    <x v="99"/>
+    <x v="90"/>
+    <n v="9407107.1119999979"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="100"/>
+    <x v="100"/>
+    <x v="100"/>
+    <x v="91"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A4:C106" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0">
+      <items count="102">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="102">
+        <item x="69"/>
+        <item x="20"/>
+        <item x="60"/>
+        <item x="48"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="77"/>
+        <item x="70"/>
+        <item x="85"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="64"/>
+        <item x="57"/>
+        <item x="10"/>
+        <item x="84"/>
+        <item x="79"/>
+        <item x="2"/>
+        <item x="68"/>
+        <item x="99"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="27"/>
+        <item x="74"/>
+        <item x="3"/>
+        <item x="82"/>
+        <item x="62"/>
+        <item x="5"/>
+        <item x="26"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="66"/>
+        <item x="31"/>
+        <item x="83"/>
+        <item x="37"/>
+        <item x="54"/>
+        <item x="12"/>
+        <item x="81"/>
+        <item x="45"/>
+        <item x="86"/>
+        <item x="88"/>
+        <item x="73"/>
+        <item x="63"/>
+        <item x="23"/>
+        <item x="41"/>
+        <item x="24"/>
+        <item x="72"/>
+        <item x="34"/>
+        <item x="78"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="92"/>
+        <item x="21"/>
+        <item x="14"/>
+        <item x="89"/>
+        <item x="39"/>
+        <item x="58"/>
+        <item x="94"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="18"/>
+        <item x="71"/>
+        <item x="43"/>
+        <item x="59"/>
+        <item x="16"/>
+        <item x="87"/>
+        <item x="44"/>
+        <item x="15"/>
+        <item x="49"/>
+        <item x="53"/>
+        <item x="76"/>
+        <item x="32"/>
+        <item x="67"/>
+        <item x="25"/>
+        <item x="50"/>
+        <item x="61"/>
+        <item x="8"/>
+        <item x="98"/>
+        <item x="33"/>
+        <item x="65"/>
+        <item x="35"/>
+        <item x="90"/>
+        <item x="46"/>
+        <item x="80"/>
+        <item x="40"/>
+        <item x="30"/>
+        <item x="56"/>
+        <item x="36"/>
+        <item x="28"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="9"/>
+        <item x="91"/>
+        <item x="47"/>
+        <item x="75"/>
+        <item x="29"/>
+        <item x="55"/>
+        <item x="93"/>
+        <item x="100"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="102">
+        <item x="81"/>
+        <item x="0"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="56"/>
+        <item x="26"/>
+        <item x="44"/>
+        <item x="66"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="67"/>
+        <item x="30"/>
+        <item x="82"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="83"/>
+        <item x="57"/>
+        <item x="8"/>
+        <item x="22"/>
+        <item x="84"/>
+        <item x="68"/>
+        <item x="85"/>
+        <item x="9"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="58"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="88"/>
+        <item x="31"/>
+        <item x="59"/>
+        <item x="1"/>
+        <item x="89"/>
+        <item x="45"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="2"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="90"/>
+        <item x="34"/>
+        <item x="60"/>
+        <item x="46"/>
+        <item x="91"/>
+        <item x="47"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="48"/>
+        <item x="61"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="92"/>
+        <item x="71"/>
+        <item x="49"/>
+        <item x="14"/>
+        <item x="41"/>
+        <item x="15"/>
+        <item x="72"/>
+        <item x="50"/>
+        <item x="16"/>
+        <item x="73"/>
+        <item x="93"/>
+        <item x="74"/>
+        <item x="51"/>
+        <item x="17"/>
+        <item x="52"/>
+        <item x="94"/>
+        <item x="75"/>
+        <item x="62"/>
+        <item x="95"/>
+        <item x="76"/>
+        <item x="96"/>
+        <item x="42"/>
+        <item x="53"/>
+        <item x="23"/>
+        <item x="4"/>
+        <item x="54"/>
+        <item x="77"/>
+        <item x="24"/>
+        <item x="63"/>
+        <item x="78"/>
+        <item x="5"/>
+        <item x="64"/>
+        <item x="25"/>
+        <item x="97"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="43"/>
+        <item x="79"/>
+        <item x="55"/>
+        <item x="80"/>
+        <item x="98"/>
+        <item x="65"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="102">
+        <item x="96"/>
+        <item x="43"/>
+        <item x="61"/>
+        <item x="93"/>
+        <item x="46"/>
+        <item x="29"/>
+        <item x="69"/>
+        <item x="2"/>
+        <item x="92"/>
+        <item x="8"/>
+        <item x="53"/>
+        <item x="15"/>
+        <item x="99"/>
+        <item x="27"/>
+        <item x="60"/>
+        <item x="77"/>
+        <item x="54"/>
+        <item x="22"/>
+        <item x="7"/>
+        <item x="79"/>
+        <item x="21"/>
+        <item x="9"/>
+        <item x="51"/>
+        <item x="10"/>
+        <item x="50"/>
+        <item x="64"/>
+        <item x="25"/>
+        <item x="49"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="67"/>
+        <item x="5"/>
+        <item x="35"/>
+        <item x="12"/>
+        <item x="78"/>
+        <item x="4"/>
+        <item x="74"/>
+        <item x="91"/>
+        <item x="85"/>
+        <item x="28"/>
+        <item x="65"/>
+        <item x="59"/>
+        <item x="68"/>
+        <item x="70"/>
+        <item x="57"/>
+        <item x="63"/>
+        <item x="47"/>
+        <item x="89"/>
+        <item x="55"/>
+        <item x="82"/>
+        <item x="44"/>
+        <item x="75"/>
+        <item x="80"/>
+        <item x="26"/>
+        <item x="66"/>
+        <item x="40"/>
+        <item x="3"/>
+        <item x="56"/>
+        <item x="32"/>
+        <item x="42"/>
+        <item x="94"/>
+        <item x="84"/>
+        <item x="81"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="95"/>
+        <item x="31"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="86"/>
+        <item x="30"/>
+        <item x="39"/>
+        <item x="16"/>
+        <item x="72"/>
+        <item x="41"/>
+        <item x="6"/>
+        <item x="33"/>
+        <item x="58"/>
+        <item x="48"/>
+        <item x="52"/>
+        <item x="45"/>
+        <item x="76"/>
+        <item x="83"/>
+        <item x="37"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="90"/>
+        <item x="71"/>
+        <item x="62"/>
+        <item x="34"/>
+        <item x="23"/>
+        <item x="1"/>
+        <item x="36"/>
+        <item x="38"/>
+        <item x="19"/>
+        <item x="73"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="18"/>
+        <item x="100"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="93">
+        <item x="30"/>
+        <item x="48"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="18"/>
+        <item x="69"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="90"/>
+        <item x="20"/>
+        <item x="26"/>
+        <item x="86"/>
+        <item x="57"/>
+        <item x="81"/>
+        <item x="10"/>
+        <item x="38"/>
+        <item x="50"/>
+        <item x="79"/>
+        <item x="25"/>
+        <item x="72"/>
+        <item x="43"/>
+        <item x="35"/>
+        <item x="23"/>
+        <item x="60"/>
+        <item x="85"/>
+        <item x="88"/>
+        <item x="87"/>
+        <item x="11"/>
+        <item x="62"/>
+        <item x="3"/>
+        <item x="77"/>
+        <item x="16"/>
+        <item x="83"/>
+        <item x="37"/>
+        <item x="59"/>
+        <item x="46"/>
+        <item x="0"/>
+        <item x="78"/>
+        <item x="65"/>
+        <item x="76"/>
+        <item x="29"/>
+        <item x="51"/>
+        <item x="56"/>
+        <item x="68"/>
+        <item x="5"/>
+        <item x="53"/>
+        <item x="47"/>
+        <item x="80"/>
+        <item x="74"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item x="75"/>
+        <item x="4"/>
+        <item x="33"/>
+        <item x="58"/>
+        <item x="41"/>
+        <item x="36"/>
+        <item x="34"/>
+        <item x="73"/>
+        <item x="27"/>
+        <item x="44"/>
+        <item x="84"/>
+        <item x="71"/>
+        <item x="17"/>
+        <item x="45"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item x="32"/>
+        <item x="55"/>
+        <item x="52"/>
+        <item x="7"/>
+        <item x="49"/>
+        <item x="9"/>
+        <item x="42"/>
+        <item x="66"/>
+        <item x="40"/>
+        <item x="2"/>
+        <item x="63"/>
+        <item x="82"/>
+        <item x="28"/>
+        <item x="39"/>
+        <item x="67"/>
+        <item x="12"/>
+        <item x="1"/>
+        <item x="64"/>
+        <item x="89"/>
+        <item x="54"/>
+        <item x="31"/>
+        <item x="61"/>
+        <item x="70"/>
+        <item x="91"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="102">
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="합계 : all_invest_result" fld="5" baseField="2" baseItem="0"/>
+    <dataField name="합계 : invest_result" fld="4" baseField="2" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,18 +4534,1207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:C106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="17" width="13.5" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" customWidth="1"/>
+    <col min="19" max="21" width="13.5" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" customWidth="1"/>
+    <col min="23" max="23" width="13.5" customWidth="1"/>
+    <col min="24" max="25" width="11.1640625" customWidth="1"/>
+    <col min="26" max="30" width="13.5" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" customWidth="1"/>
+    <col min="32" max="33" width="13.5" customWidth="1"/>
+    <col min="34" max="34" width="11.1640625" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" customWidth="1"/>
+    <col min="36" max="36" width="13.5" customWidth="1"/>
+    <col min="37" max="37" width="12.33203125" customWidth="1"/>
+    <col min="38" max="38" width="10" customWidth="1"/>
+    <col min="39" max="41" width="13.5" customWidth="1"/>
+    <col min="42" max="42" width="10" customWidth="1"/>
+    <col min="43" max="49" width="13.5" customWidth="1"/>
+    <col min="50" max="50" width="12.33203125" customWidth="1"/>
+    <col min="51" max="51" width="13.5" customWidth="1"/>
+    <col min="52" max="52" width="10" customWidth="1"/>
+    <col min="53" max="54" width="13.5" customWidth="1"/>
+    <col min="55" max="55" width="12.33203125" customWidth="1"/>
+    <col min="56" max="69" width="13.5" customWidth="1"/>
+    <col min="70" max="70" width="12.33203125" customWidth="1"/>
+    <col min="71" max="76" width="13.5" customWidth="1"/>
+    <col min="77" max="77" width="12.33203125" customWidth="1"/>
+    <col min="78" max="82" width="13.5" customWidth="1"/>
+    <col min="83" max="83" width="10" customWidth="1"/>
+    <col min="84" max="84" width="13.5" customWidth="1"/>
+    <col min="85" max="85" width="12.33203125" customWidth="1"/>
+    <col min="86" max="92" width="13.5" customWidth="1"/>
+    <col min="93" max="93" width="10.75" customWidth="1"/>
+    <col min="94" max="94" width="6.83203125" customWidth="1"/>
+    <col min="95" max="101" width="20.4140625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="6.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="4">
+        <v>13655378</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9982803.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12609159.175000001</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10430543.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="4">
+        <v>11935286.43</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12503795.384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="4">
+        <v>11679845.42</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="4">
+        <v>11467360.914999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10570830.528000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4">
+        <v>11308336.255000001</v>
+      </c>
+      <c r="C10" s="4">
+        <v>11308336.255000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>11127523.15</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10708971.550000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11127421.852499999</v>
+      </c>
+      <c r="C12" s="4">
+        <v>11357401.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4">
+        <v>11043730</v>
+      </c>
+      <c r="C13" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10930852.272500001</v>
+      </c>
+      <c r="C14" s="4">
+        <v>10125048.574999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10813650.946249999</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10804486</v>
+      </c>
+      <c r="C16" s="4">
+        <v>10525368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4">
+        <v>10780442.800000001</v>
+      </c>
+      <c r="C17" s="4">
+        <v>10158448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10672082.3035</v>
+      </c>
+      <c r="C18" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4">
+        <v>10606005.80425</v>
+      </c>
+      <c r="C19" s="4">
+        <v>10606005.80425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="4">
+        <v>10580835.668</v>
+      </c>
+      <c r="C20" s="4">
+        <v>10742578.842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4">
+        <v>10519089.52</v>
+      </c>
+      <c r="C21" s="4">
+        <v>10317724.289999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="4">
+        <v>10516848.449999999</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10499322.800000001</v>
+      </c>
+      <c r="C23" s="4">
+        <v>10327583.845000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="4">
+        <v>10488989.06425</v>
+      </c>
+      <c r="C24" s="4">
+        <v>10504900.120750001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="4">
+        <v>10487206.465</v>
+      </c>
+      <c r="C25" s="4">
+        <v>9782807.2000000011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10473182.605</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10473182.605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="4">
+        <v>10456858.359999999</v>
+      </c>
+      <c r="C27" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="4">
+        <v>10452319.227499999</v>
+      </c>
+      <c r="C28" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4">
+        <v>10448889.779999999</v>
+      </c>
+      <c r="C29" s="4">
+        <v>10354575.225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="4">
+        <v>10386032.095899999</v>
+      </c>
+      <c r="C30" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="4">
+        <v>10381550.5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>10176992.800000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10366004</v>
+      </c>
+      <c r="C32" s="4">
+        <v>10172509.625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="4">
+        <v>10355731.887499999</v>
+      </c>
+      <c r="C33" s="4">
+        <v>10355731.887499999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4">
+        <v>10344868.895500001</v>
+      </c>
+      <c r="C34" s="4">
+        <v>10367160.266000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="4">
+        <v>10334635.4625</v>
+      </c>
+      <c r="C35" s="4">
+        <v>10249139.365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10291223.75</v>
+      </c>
+      <c r="C36" s="4">
+        <v>10003592.289999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="4">
+        <v>10281139.75</v>
+      </c>
+      <c r="C37" s="4">
+        <v>10458501.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="4">
+        <v>10279421.172</v>
+      </c>
+      <c r="C38" s="4">
+        <v>10279421.172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="4">
+        <v>10245840.675000001</v>
+      </c>
+      <c r="C39" s="4">
+        <v>10254933.025</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="4">
+        <v>10229793.788000001</v>
+      </c>
+      <c r="C40" s="4">
+        <v>10292117.744000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10222668.800000001</v>
+      </c>
+      <c r="C41" s="4">
+        <v>10160809.775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="4">
+        <v>10219110.030999999</v>
+      </c>
+      <c r="C42" s="4">
+        <v>10219110.030999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="4">
+        <v>10202905.175000001</v>
+      </c>
+      <c r="C43" s="4">
+        <v>10202905.175000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="4">
+        <v>10195832.35</v>
+      </c>
+      <c r="C44" s="4">
+        <v>10195832.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="4">
+        <v>10191946.119999999</v>
+      </c>
+      <c r="C45" s="4">
+        <v>10367456.875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="4">
+        <v>10190693.717499999</v>
+      </c>
+      <c r="C46" s="4">
+        <v>10190693.717499999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="4">
+        <v>10186364.75</v>
+      </c>
+      <c r="C47" s="4">
+        <v>10076711.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="4">
+        <v>10175154.49</v>
+      </c>
+      <c r="C48" s="4">
+        <v>9789030.1999999974</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="4">
+        <v>10167672.835000001</v>
+      </c>
+      <c r="C49" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="4">
+        <v>10162230.09</v>
+      </c>
+      <c r="C50" s="4">
+        <v>10323911.24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="4">
+        <v>10157950.214500001</v>
+      </c>
+      <c r="C51" s="4">
+        <v>10157950.214500001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="4">
+        <v>10136873.800000001</v>
+      </c>
+      <c r="C52" s="4">
+        <v>10992037.404999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="4">
+        <v>10136148.808</v>
+      </c>
+      <c r="C53" s="4">
+        <v>10235239.158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="4">
+        <v>10136124.1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>9954697.4000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="4">
+        <v>10135196.800000001</v>
+      </c>
+      <c r="C55" s="4">
+        <v>10318321.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="4">
+        <v>10100884.85</v>
+      </c>
+      <c r="C56" s="4">
+        <v>10200913.324999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="4">
+        <v>10088566.1875</v>
+      </c>
+      <c r="C57" s="4">
+        <v>10133088.41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="4">
+        <v>10083086.00275</v>
+      </c>
+      <c r="C58" s="4">
+        <v>10234075.523</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="4">
+        <v>10051303</v>
+      </c>
+      <c r="C59" s="4">
+        <v>10051303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="4">
+        <v>10047951.645</v>
+      </c>
+      <c r="C60" s="4">
+        <v>10115434.991</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="4">
+        <v>10022175.977499999</v>
+      </c>
+      <c r="C61" s="4">
+        <v>10080773.215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="4">
+        <v>10020878.354</v>
+      </c>
+      <c r="C62" s="4">
+        <v>10020878.354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="4">
+        <v>10003916.449999999</v>
+      </c>
+      <c r="C63" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="4">
+        <v>9981598.8900000025</v>
+      </c>
+      <c r="C64" s="4">
+        <v>9981598.8900000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="4">
+        <v>9967042.4049999993</v>
+      </c>
+      <c r="C65" s="4">
+        <v>10210362.237500001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="4">
+        <v>9967018.5460000001</v>
+      </c>
+      <c r="C66" s="4">
+        <v>9942073.6960000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="4">
+        <v>9967013.1999999993</v>
+      </c>
+      <c r="C67" s="4">
+        <v>9883975.5950000007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="4">
+        <v>9939644.375</v>
+      </c>
+      <c r="C68" s="4">
+        <v>9802577.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="4">
+        <v>9930637.9499999993</v>
+      </c>
+      <c r="C69" s="4">
+        <v>9930637.9499999993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="4">
+        <v>9853403.9800000023</v>
+      </c>
+      <c r="C70" s="4">
+        <v>9888691.4550000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="4">
+        <v>9820637.9499999993</v>
+      </c>
+      <c r="C71" s="4">
+        <v>9993895.6499999985</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="4">
+        <v>9817674.6749999989</v>
+      </c>
+      <c r="C72" s="4">
+        <v>9817674.6749999989</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="4">
+        <v>9789850.5430000015</v>
+      </c>
+      <c r="C73" s="4">
+        <v>10150741.504000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="4">
+        <v>9788230.8444999997</v>
+      </c>
+      <c r="C74" s="4">
+        <v>9788230.8444999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4">
+        <v>9786641.9160999991</v>
+      </c>
+      <c r="C75" s="4">
+        <v>10487980.276900001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="4">
+        <v>9780847.0075000003</v>
+      </c>
+      <c r="C76" s="4">
+        <v>9780847.0075000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="4">
+        <v>9766544.5504999999</v>
+      </c>
+      <c r="C77" s="4">
+        <v>9821361.0120000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="4">
+        <v>9763591.7550000008</v>
+      </c>
+      <c r="C78" s="4">
+        <v>10912359.835000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" s="4">
+        <v>9762259.4534999989</v>
+      </c>
+      <c r="C79" s="4">
+        <v>10131738.744999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" s="4">
+        <v>9728785.1900000013</v>
+      </c>
+      <c r="C80" s="4">
+        <v>9728785.1900000013</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" s="4">
+        <v>9699452.3899999987</v>
+      </c>
+      <c r="C81" s="4">
+        <v>10517379.96325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" s="4">
+        <v>9687535.9074999988</v>
+      </c>
+      <c r="C82" s="4">
+        <v>9687535.9074999988</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="4">
+        <v>9662426.1774999984</v>
+      </c>
+      <c r="C83" s="4">
+        <v>10012093.26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="4">
+        <v>9637922.81855</v>
+      </c>
+      <c r="C84" s="4">
+        <v>9637922.81855</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="4">
+        <v>9618615.1150000002</v>
+      </c>
+      <c r="C85" s="4">
+        <v>9931014.7050000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" s="4">
+        <v>9618478.7112500016</v>
+      </c>
+      <c r="C86" s="4">
+        <v>10197477.0655</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="4">
+        <v>9569894.1384999994</v>
+      </c>
+      <c r="C87" s="4">
+        <v>9779429.7559999991</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="4">
+        <v>9557336.5903000012</v>
+      </c>
+      <c r="C88" s="4">
+        <v>9557336.5903000012</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="4">
+        <v>9525595.1500000004</v>
+      </c>
+      <c r="C89" s="4">
+        <v>9525595.1500000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="4">
+        <v>9477249.5749999993</v>
+      </c>
+      <c r="C90" s="4">
+        <v>9532645.0524999984</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="4">
+        <v>9433200.0250000022</v>
+      </c>
+      <c r="C91" s="4">
+        <v>10052199.842499999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="4">
+        <v>9407107.1119999979</v>
+      </c>
+      <c r="C92" s="4">
+        <v>9407107.1119999979</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="4">
+        <v>9360129.0925000012</v>
+      </c>
+      <c r="C93" s="4">
+        <v>9775379.227500001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" s="4">
+        <v>9324110.9499999993</v>
+      </c>
+      <c r="C94" s="4">
+        <v>9533640.8499999978</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" s="4">
+        <v>9273425.7599999998</v>
+      </c>
+      <c r="C95" s="4">
+        <v>9273425.7599999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4">
+        <v>9272958.3550000004</v>
+      </c>
+      <c r="C96" s="4">
+        <v>9626927.7575000022</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="4">
+        <v>9245127.4399999995</v>
+      </c>
+      <c r="C97" s="4">
+        <v>9354297.0399999991</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="4">
+        <v>9161748.4800000004</v>
+      </c>
+      <c r="C98" s="4">
+        <v>9354879.915000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="4">
+        <v>9098602.0299999993</v>
+      </c>
+      <c r="C99" s="4">
+        <v>9098602.0299999993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B100" s="4">
+        <v>9029961</v>
+      </c>
+      <c r="C100" s="4">
+        <v>9029961</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="4">
+        <v>9005346.0649999995</v>
+      </c>
+      <c r="C101" s="4">
+        <v>9847490.5739999991</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="4">
+        <v>8861927.6799999997</v>
+      </c>
+      <c r="C102" s="4">
+        <v>9134811.5699999984</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B103" s="4">
+        <v>8815586.09375</v>
+      </c>
+      <c r="C103" s="4">
+        <v>8815586.09375</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" s="4">
+        <v>8397654.4000000004</v>
+      </c>
+      <c r="C104" s="4">
+        <v>8783960.8600000013</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1013169794.0758499</v>
+      </c>
+      <c r="C106" s="4">
+        <v>1007132408.69675</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -716,2306 +5760,2324 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1040</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.0386071540415287</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10303689.575</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9893388.200000001</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="D2">
+        <v>4.0540505200624473E-2</v>
+      </c>
+      <c r="E2">
+        <v>10000000</v>
+      </c>
+      <c r="F2">
+        <v>10003916.449999999</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>640</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.05036300793290138</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10657983.7</v>
-      </c>
-      <c r="G3" t="n">
-        <v>593</v>
+      <c r="D3">
+        <v>5.7473950088024139E-2</v>
+      </c>
+      <c r="E3">
+        <v>10708971.550000001</v>
+      </c>
+      <c r="F3">
+        <v>11127523.15</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="n">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>400</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.004466481506824493</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9974965.00075</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10045177.762</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="D4">
+        <v>6.8852691911160946E-3</v>
+      </c>
+      <c r="E4">
+        <v>10473182.605</v>
+      </c>
+      <c r="F4">
+        <v>10473182.605</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="n">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>810</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.02921720780432224</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9524431.6</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9524431.6</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="D5">
+        <v>3.0147364363074299E-2</v>
+      </c>
+      <c r="E5">
+        <v>9930637.9499999993</v>
+      </c>
+      <c r="F5">
+        <v>9930637.9499999993</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="n">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>3240</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.01107734348624945</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9894871.299999999</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10538009.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>521</v>
+      <c r="D6">
+        <v>2.0161952823400501E-2</v>
+      </c>
+      <c r="E6">
+        <v>10176992.800000001</v>
+      </c>
+      <c r="F6">
+        <v>10381550.5</v>
+      </c>
+      <c r="G6">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="n">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>970</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.01438101287931204</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9866817.4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9817472.5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>596</v>
+      <c r="D7">
+        <v>1.8392089754343029E-2</v>
+      </c>
+      <c r="E7">
+        <v>10115434.991</v>
+      </c>
+      <c r="F7">
+        <v>10047951.645</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="n">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2320</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.01628651656210423</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10820133.6325</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10891603.125</v>
-      </c>
-      <c r="G8" t="n">
-        <v>287</v>
+      <c r="D8">
+        <v>4.2786635458469391E-2</v>
+      </c>
+      <c r="E8">
+        <v>10158448</v>
+      </c>
+      <c r="F8">
+        <v>10780442.800000001</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="n">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>590</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.008898901753127575</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9834471.979999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9938501.92</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4</v>
+      <c r="D9">
+        <v>1.1250819079577919E-2</v>
+      </c>
+      <c r="E9">
+        <v>10354575.225</v>
+      </c>
+      <c r="F9">
+        <v>10448889.779999999</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="n">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>4540</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.02386419847607613</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9805668.5725</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="D10">
+        <v>7.5104185380041599E-3</v>
+      </c>
+      <c r="E10">
+        <v>10157950.214500001</v>
+      </c>
+      <c r="F10">
+        <v>10157950.214500001</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="n">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>6570</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.005754709243774414</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10182066.0395</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10139582.328</v>
-      </c>
-      <c r="G11" t="n">
-        <v>114</v>
+      <c r="D11">
+        <v>1.2910519726574419E-2</v>
+      </c>
+      <c r="E11">
+        <v>10367160.266000001</v>
+      </c>
+      <c r="F11">
+        <v>10344868.895500001</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="n">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>300</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.00417901249602437</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9228239.376399999</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9228239.376399999</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="D12">
+        <v>1.4827834442257879E-2</v>
+      </c>
+      <c r="E12">
+        <v>9637922.81855</v>
+      </c>
+      <c r="F12">
+        <v>9637922.81855</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="n">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1070</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.02940088324248791</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9768737.057500001</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9602302.7575</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="D13">
+        <v>4.924299567937851E-2</v>
+      </c>
+      <c r="E13">
+        <v>9883975.5950000007</v>
+      </c>
+      <c r="F13">
+        <v>9967013.1999999993</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="n">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1440</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.01877176202833652</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10008362.3095</v>
-      </c>
-      <c r="F14" t="n">
-        <v>10008362.3095</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="D14">
+        <v>1.9206622615456581E-2</v>
+      </c>
+      <c r="E14">
+        <v>10606005.80425</v>
+      </c>
+      <c r="F14">
+        <v>10606005.80425</v>
+      </c>
+      <c r="G14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" t="n">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>3230</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.05985691025853157</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8967177.270000001</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8967177.270000001</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
+      <c r="D15">
+        <v>3.7077721208333969E-2</v>
+      </c>
+      <c r="E15">
+        <v>9098602.0299999993</v>
+      </c>
+      <c r="F15">
+        <v>9098602.0299999993</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" t="n">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2790</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.1673480272293091</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9119776.5</v>
-      </c>
-      <c r="G16" t="n">
-        <v>599</v>
+      <c r="D16">
+        <v>3.7364620715379708E-2</v>
+      </c>
+      <c r="E16">
+        <v>9354879.915000001</v>
+      </c>
+      <c r="F16">
+        <v>9161748.4800000004</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="n">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>3560</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.004421152640134096</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9400560.686999999</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9107246.8135</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="D17">
+        <v>9.7188800573348999E-3</v>
+      </c>
+      <c r="E17">
+        <v>9354297.0399999991</v>
+      </c>
+      <c r="F17">
+        <v>9245127.4399999995</v>
+      </c>
+      <c r="G17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="n">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>3520</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.02073347009718418</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9779511.061000001</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9706382.312500002</v>
-      </c>
-      <c r="G18" t="n">
-        <v>105</v>
+      <c r="D18">
+        <v>4.2313873767852783E-2</v>
+      </c>
+      <c r="E18">
+        <v>9942073.6960000005</v>
+      </c>
+      <c r="F18">
+        <v>9967018.5460000001</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="n">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>100</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.05435296148061752</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10331711.675</v>
-      </c>
-      <c r="G19" t="n">
-        <v>599</v>
+      <c r="D19">
+        <v>4.0225248783826828E-2</v>
+      </c>
+      <c r="E19">
+        <v>10254933.025</v>
+      </c>
+      <c r="F19">
+        <v>10245840.675000001</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="n">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>3300</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.03896926715970039</v>
-      </c>
-      <c r="E20" t="n">
-        <v>8758053.250000002</v>
-      </c>
-      <c r="F20" t="n">
-        <v>8604971.479999999</v>
-      </c>
-      <c r="G20" t="n">
-        <v>46</v>
+      <c r="D20">
+        <v>8.6210742592811584E-2</v>
+      </c>
+      <c r="E20">
+        <v>9134811.5699999984</v>
+      </c>
+      <c r="F20">
+        <v>8861927.6799999997</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="n">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>120</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.041972316801548</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10433781.925</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10190664</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+      <c r="D21">
+        <v>6.7084088921546936E-2</v>
+      </c>
+      <c r="E21">
+        <v>10160809.775</v>
+      </c>
+      <c r="F21">
+        <v>10222668.800000001</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" t="n">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>50</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.05322496220469475</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9531019.720000001</v>
-      </c>
-      <c r="F22" t="n">
-        <v>9531019.720000001</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
+      <c r="D22">
+        <v>5.0095818936824799E-2</v>
+      </c>
+      <c r="E22">
+        <v>9525595.1500000004</v>
+      </c>
+      <c r="F22">
+        <v>9525595.1500000004</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="n">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>2720</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.007257854100316763</v>
-      </c>
-      <c r="E23" t="n">
-        <v>10490430.3125</v>
-      </c>
-      <c r="F23" t="n">
-        <v>10265100.829</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="D23">
+        <v>1.253457088023424E-2</v>
+      </c>
+      <c r="E23">
+        <v>10292117.744000001</v>
+      </c>
+      <c r="F23">
+        <v>10229793.788000001</v>
+      </c>
+      <c r="G23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="n">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2350</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.01213521044701338</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F24" t="n">
-        <v>9078916.3365</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="D24">
+        <v>1.090874243527651E-2</v>
+      </c>
+      <c r="E24">
+        <v>9029961</v>
+      </c>
+      <c r="F24">
+        <v>9029961</v>
+      </c>
+      <c r="G24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="n">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>2020</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.05960985273122787</v>
-      </c>
-      <c r="E25" t="n">
-        <v>10226916.9575</v>
-      </c>
-      <c r="F25" t="n">
-        <v>10421220.96</v>
-      </c>
-      <c r="G25" t="n">
-        <v>536</v>
+      <c r="D25">
+        <v>5.7342216372489929E-2</v>
+      </c>
+      <c r="E25">
+        <v>9789030.1999999974</v>
+      </c>
+      <c r="F25">
+        <v>10175154.49</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="n">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>2200</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.01414948422461748</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9486028.455</v>
-      </c>
-      <c r="F26" t="n">
-        <v>10634559.4</v>
-      </c>
-      <c r="G26" t="n">
-        <v>587</v>
+      <c r="D26">
+        <v>3.7722848355770111E-2</v>
+      </c>
+      <c r="E26">
+        <v>10317724.289999999</v>
+      </c>
+      <c r="F26">
+        <v>10519089.52</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="n">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>4150</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.01257038302719593</v>
-      </c>
-      <c r="E27" t="n">
-        <v>9999633.854999999</v>
-      </c>
-      <c r="F27" t="n">
-        <v>9644352.791999999</v>
-      </c>
-      <c r="G27" t="n">
-        <v>206</v>
+      <c r="D27">
+        <v>1.6292782500386242E-2</v>
+      </c>
+      <c r="E27">
+        <v>9779429.7559999991</v>
+      </c>
+      <c r="F27">
+        <v>9569894.1384999994</v>
+      </c>
+      <c r="G27">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="n">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>990</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.01738694310188293</v>
-      </c>
-      <c r="E28" t="n">
-        <v>9320172.674999999</v>
-      </c>
-      <c r="F28" t="n">
-        <v>9534158.3125</v>
-      </c>
-      <c r="G28" t="n">
-        <v>72</v>
+      <c r="D28">
+        <v>2.9272370040416721E-2</v>
+      </c>
+      <c r="E28">
+        <v>9532645.0524999984</v>
+      </c>
+      <c r="F28">
+        <v>9477249.5749999993</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" t="n">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>680</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.0194373857229948</v>
-      </c>
-      <c r="E29" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F29" t="n">
-        <v>9917329.5385</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="D29">
+        <v>1.051755622029305E-2</v>
+      </c>
+      <c r="E29">
+        <v>10219110.030999999</v>
+      </c>
+      <c r="F29">
+        <v>10219110.030999999</v>
+      </c>
+      <c r="G29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="n">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>5940</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.008324478752911091</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>2.1629450842738152E-2</v>
+      </c>
+      <c r="E30">
         <v>10000000</v>
       </c>
-      <c r="F30" t="n">
-        <v>10826696.64</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
+      <c r="F30">
+        <v>10452319.227499999</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" t="n">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>8260</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.00181155395694077</v>
-      </c>
-      <c r="E31" t="n">
-        <v>9932631.252</v>
-      </c>
-      <c r="F31" t="n">
-        <v>9633658.112</v>
-      </c>
-      <c r="G31" t="n">
-        <v>193</v>
+      <c r="D31">
+        <v>5.8111413381993771E-3</v>
+      </c>
+      <c r="E31">
+        <v>10517379.96325</v>
+      </c>
+      <c r="F31">
+        <v>9699452.3899999987</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" t="n">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>5610</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.01740556955337524</v>
-      </c>
-      <c r="E32" t="n">
-        <v>11068568.975</v>
-      </c>
-      <c r="F32" t="n">
-        <v>10675912.15</v>
-      </c>
-      <c r="G32" t="n">
-        <v>3</v>
+      <c r="D32">
+        <v>4.0880158543586731E-2</v>
+      </c>
+      <c r="E32">
+        <v>10000000</v>
+      </c>
+      <c r="F32">
+        <v>11043730</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" t="n">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1130</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.01524305902421474</v>
-      </c>
-      <c r="E33" t="n">
-        <v>9823026</v>
-      </c>
-      <c r="F33" t="n">
-        <v>10134946</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="D33">
+        <v>3.9053652435541153E-2</v>
+      </c>
+      <c r="E33">
+        <v>10051303</v>
+      </c>
+      <c r="F33">
+        <v>10051303</v>
+      </c>
+      <c r="G33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" t="n">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>4000</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.01243716012686491</v>
-      </c>
-      <c r="E34" t="n">
-        <v>8846101.245000001</v>
-      </c>
-      <c r="F34" t="n">
-        <v>8381251.939999999</v>
-      </c>
-      <c r="G34" t="n">
-        <v>82</v>
+      <c r="D34">
+        <v>3.3492743968963623E-2</v>
+      </c>
+      <c r="E34">
+        <v>8783960.8600000013</v>
+      </c>
+      <c r="F34">
+        <v>8397654.4000000004</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" t="n">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>4990</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.06953977793455124</v>
-      </c>
-      <c r="E35" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F35" t="n">
-        <v>10767966.97</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
+      <c r="D35">
+        <v>4.3119102716445923E-2</v>
+      </c>
+      <c r="E35">
+        <v>11308336.255000001</v>
+      </c>
+      <c r="F35">
+        <v>11308336.255000001</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" t="n">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>2270</v>
       </c>
       <c r="C36" t="s">
         <v>41</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.0267099030315876</v>
-      </c>
-      <c r="E36" t="n">
-        <v>10142382.4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>9640366</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="D36">
+        <v>5.4977118968963623E-2</v>
+      </c>
+      <c r="E36">
+        <v>10318321.6</v>
+      </c>
+      <c r="F36">
+        <v>10135196.800000001</v>
+      </c>
+      <c r="G36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" t="n">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>5030</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.008035562932491302</v>
-      </c>
-      <c r="E37" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F37" t="n">
-        <v>10036223.376</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="D37">
+        <v>1.8642734736204151E-2</v>
+      </c>
+      <c r="E37">
+        <v>10190693.717499999</v>
+      </c>
+      <c r="F37">
+        <v>10190693.717499999</v>
+      </c>
+      <c r="G37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" t="n">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>5930</v>
       </c>
       <c r="C38" t="s">
         <v>43</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.2975755333900452</v>
-      </c>
-      <c r="E38" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F38" t="n">
-        <v>10203955.84</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
+      <c r="D38">
+        <v>6.2190838158130653E-2</v>
+      </c>
+      <c r="E38">
+        <v>10202905.175000001</v>
+      </c>
+      <c r="F38">
+        <v>10202905.175000001</v>
+      </c>
+      <c r="G38">
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" t="n">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>1360</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.01633110642433167</v>
-      </c>
-      <c r="E39" t="n">
-        <v>9741544.251249999</v>
-      </c>
-      <c r="F39" t="n">
-        <v>9891048.477999998</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="D39">
+        <v>4.8323918133974082E-2</v>
+      </c>
+      <c r="E39">
+        <v>9788230.8444999997</v>
+      </c>
+      <c r="F39">
+        <v>9788230.8444999997</v>
+      </c>
+      <c r="G39">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" t="n">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>2420</v>
       </c>
       <c r="C40" t="s">
         <v>45</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.06263841688632965</v>
-      </c>
-      <c r="E40" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F40" t="n">
-        <v>9872230.890000001</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
+      <c r="D40">
+        <v>6.315205991268158E-2</v>
+      </c>
+      <c r="E40">
+        <v>10200913.324999999</v>
+      </c>
+      <c r="F40">
+        <v>10100884.85</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" t="n">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>3030</v>
       </c>
       <c r="C41" t="s">
         <v>46</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.01903487369418144</v>
-      </c>
-      <c r="E41" t="n">
-        <v>9618300.5</v>
-      </c>
-      <c r="F41" t="n">
-        <v>9618300.5</v>
-      </c>
-      <c r="G41" t="n">
-        <v>64</v>
+      <c r="D41">
+        <v>4.1250739246606827E-2</v>
+      </c>
+      <c r="E41">
+        <v>9981598.8900000006</v>
+      </c>
+      <c r="F41">
+        <v>9981598.8900000025</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" t="n">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>5390</v>
       </c>
       <c r="C42" t="s">
         <v>47</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.008994698524475098</v>
-      </c>
-      <c r="E42" t="n">
-        <v>9731921.214749999</v>
-      </c>
-      <c r="F42" t="n">
-        <v>9731921.214749999</v>
-      </c>
-      <c r="G42" t="n">
-        <v>24</v>
+      <c r="D42">
+        <v>2.9695600271224979E-2</v>
+      </c>
+      <c r="E42">
+        <v>9687535.9074999988</v>
+      </c>
+      <c r="F42">
+        <v>9687535.9074999988</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" t="n">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>2030</v>
       </c>
       <c r="C43" t="s">
         <v>48</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.0163500402122736</v>
-      </c>
-      <c r="E43" t="n">
-        <v>10082484.325</v>
-      </c>
-      <c r="F43" t="n">
-        <v>10794169.225</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
+      <c r="D43">
+        <v>4.257265105843544E-2</v>
+      </c>
+      <c r="E43">
+        <v>10525368</v>
+      </c>
+      <c r="F43">
+        <v>10804486</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" t="n">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>2380</v>
       </c>
       <c r="C44" t="s">
         <v>49</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.03820522129535675</v>
-      </c>
-      <c r="E44" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F44" t="n">
-        <v>10096106.925</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="D44">
+        <v>3.4079492092132568E-2</v>
+      </c>
+      <c r="E44">
+        <v>10458501.25</v>
+      </c>
+      <c r="F44">
+        <v>10281139.75</v>
+      </c>
+      <c r="G44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" t="n">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>3480</v>
       </c>
       <c r="C45" t="s">
         <v>50</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.004339723382145166</v>
-      </c>
-      <c r="E45" t="n">
-        <v>9591424.578250002</v>
-      </c>
-      <c r="F45" t="n">
-        <v>9288154.786</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="D45">
+        <v>4.4224364683032036E-3</v>
+      </c>
+      <c r="E45">
+        <v>10197477.0655</v>
+      </c>
+      <c r="F45">
+        <v>9618478.7112500016</v>
+      </c>
+      <c r="G45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" t="n">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>3550</v>
       </c>
       <c r="C46" t="s">
         <v>51</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.02684764191508293</v>
-      </c>
-      <c r="E46" t="n">
-        <v>10177983.595</v>
-      </c>
-      <c r="F46" t="n">
-        <v>10107705.67</v>
-      </c>
-      <c r="G46" t="n">
-        <v>132</v>
+      <c r="D46">
+        <v>2.7988249436020851E-2</v>
+      </c>
+      <c r="E46">
+        <v>10367456.875</v>
+      </c>
+      <c r="F46">
+        <v>10191946.119999999</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" t="n">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1530</v>
       </c>
       <c r="C47" t="s">
         <v>52</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.01936627179384232</v>
-      </c>
-      <c r="E47" t="n">
-        <v>10229219.575</v>
-      </c>
-      <c r="F47" t="n">
-        <v>10759846.26</v>
-      </c>
-      <c r="G47" t="n">
+      <c r="D47">
+        <v>4.6579480171203613E-2</v>
+      </c>
+      <c r="E47">
+        <v>9782807.2000000011</v>
+      </c>
+      <c r="F47">
+        <v>10487206.465</v>
+      </c>
+      <c r="G47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="n">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>5360</v>
       </c>
       <c r="C48" t="s">
         <v>53</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.004303232301026583</v>
-      </c>
-      <c r="E48" t="n">
-        <v>9933389.799000001</v>
-      </c>
-      <c r="F48" t="n">
-        <v>9884368.592999998</v>
-      </c>
-      <c r="G48" t="n">
-        <v>598</v>
+      <c r="D48">
+        <v>5.0097443163394928E-3</v>
+      </c>
+      <c r="E48">
+        <v>10234075.523</v>
+      </c>
+      <c r="F48">
+        <v>10083086.00275</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" t="n">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>7210</v>
       </c>
       <c r="C49" t="s">
         <v>54</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.01692934520542622</v>
-      </c>
-      <c r="E49" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F49" t="n">
-        <v>9831311.63125</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
+      <c r="D49">
+        <v>2.5520393624901772E-2</v>
+      </c>
+      <c r="E49">
+        <v>10279421.172</v>
+      </c>
+      <c r="F49">
+        <v>10279421.172</v>
+      </c>
+      <c r="G49">
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" t="n">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>70</v>
       </c>
       <c r="C50" t="s">
         <v>55</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.04568656906485558</v>
-      </c>
-      <c r="E50" t="n">
-        <v>9787812.849999998</v>
-      </c>
-      <c r="F50" t="n">
-        <v>9771792.299999999</v>
-      </c>
-      <c r="G50" t="n">
-        <v>68</v>
+      <c r="D50">
+        <v>4.5484822243452072E-2</v>
+      </c>
+      <c r="E50">
+        <v>9993895.6499999985</v>
+      </c>
+      <c r="F50">
+        <v>9820637.9499999993</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" t="n">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>3620</v>
       </c>
       <c r="C51" t="s">
         <v>56</v>
       </c>
-      <c r="D51" t="n">
-        <v>0.009481135755777359</v>
-      </c>
-      <c r="E51" t="n">
-        <v>10086194.239</v>
-      </c>
-      <c r="F51" t="n">
-        <v>9532348.740250001</v>
-      </c>
-      <c r="G51" t="n">
-        <v>198</v>
+      <c r="D51">
+        <v>1.6501083970069889E-2</v>
+      </c>
+      <c r="E51">
+        <v>10131738.744999999</v>
+      </c>
+      <c r="F51">
+        <v>9762259.4534999989</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" t="n">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>4250</v>
       </c>
       <c r="C52" t="s">
         <v>57</v>
       </c>
-      <c r="D52" t="n">
-        <v>0.01658103987574577</v>
-      </c>
-      <c r="E52" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F52" t="n">
-        <v>9068952.025000002</v>
-      </c>
-      <c r="G52" t="n">
+      <c r="D52">
+        <v>1.493721920996904E-2</v>
+      </c>
+      <c r="E52">
+        <v>8815586.09375</v>
+      </c>
+      <c r="F52">
+        <v>8815586.09375</v>
+      </c>
+      <c r="G52">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" t="n">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>220</v>
       </c>
       <c r="C53" t="s">
         <v>58</v>
       </c>
-      <c r="D53" t="n">
-        <v>0.01342611294239759</v>
-      </c>
-      <c r="E53" t="n">
-        <v>10577876.145</v>
-      </c>
-      <c r="F53" t="n">
-        <v>10033004.01</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="D53">
+        <v>1.464543119072914E-2</v>
+      </c>
+      <c r="E53">
+        <v>10000000</v>
+      </c>
+      <c r="F53">
+        <v>10167672.835000001</v>
+      </c>
+      <c r="G53">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" t="n">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>230</v>
       </c>
       <c r="C54" t="s">
         <v>59</v>
       </c>
-      <c r="D54" t="n">
-        <v>0.02822498418390751</v>
-      </c>
-      <c r="E54" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F54" t="n">
-        <v>10391070.22</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
+      <c r="D54">
+        <v>4.6470262110233307E-2</v>
+      </c>
+      <c r="E54">
+        <v>10355731.887499999</v>
+      </c>
+      <c r="F54">
+        <v>10355731.887499999</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" t="n">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>3690</v>
       </c>
       <c r="C55" t="s">
         <v>60</v>
       </c>
-      <c r="D55" t="n">
-        <v>0.009209876880049706</v>
-      </c>
-      <c r="E55" t="n">
-        <v>9454938.615</v>
-      </c>
-      <c r="F55" t="n">
-        <v>9454938.615</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
+      <c r="D55">
+        <v>8.3434032276272774E-3</v>
+      </c>
+      <c r="E55">
+        <v>9728785.1900000013</v>
+      </c>
+      <c r="F55">
+        <v>9728785.1900000013</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" t="n">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>1420</v>
       </c>
       <c r="C56" t="s">
         <v>61</v>
       </c>
-      <c r="D56" t="n">
-        <v>0.003371975617483258</v>
-      </c>
-      <c r="E56" t="n">
-        <v>9988189.412500001</v>
-      </c>
-      <c r="F56" t="n">
-        <v>10482670.6675</v>
-      </c>
-      <c r="G56" t="n">
-        <v>587</v>
+      <c r="D56">
+        <v>1.086448412388563E-2</v>
+      </c>
+      <c r="E56">
+        <v>10000000</v>
+      </c>
+      <c r="F56">
+        <v>10672082.3035</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" t="n">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>9830</v>
       </c>
       <c r="C57" t="s">
         <v>62</v>
       </c>
-      <c r="D57" t="n">
-        <v>0.01077130436897278</v>
-      </c>
-      <c r="E57" t="n">
-        <v>9130270.955000002</v>
-      </c>
-      <c r="F57" t="n">
-        <v>9306101.65</v>
-      </c>
-      <c r="G57" t="n">
-        <v>190</v>
+      <c r="D57">
+        <v>2.6822507381439209E-2</v>
+      </c>
+      <c r="E57">
+        <v>10052199.842499999</v>
+      </c>
+      <c r="F57">
+        <v>9433200.0250000022</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" t="n">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>5830</v>
       </c>
       <c r="C58" t="s">
         <v>63</v>
       </c>
-      <c r="D58" t="n">
-        <v>0.03565461188554764</v>
-      </c>
-      <c r="E58" t="n">
-        <v>10396184.26</v>
-      </c>
-      <c r="F58" t="n">
-        <v>9816538.020000001</v>
-      </c>
-      <c r="G58" t="n">
+      <c r="D58">
+        <v>3.2067473977804177E-2</v>
+      </c>
+      <c r="E58">
+        <v>10327583.845000001</v>
+      </c>
+      <c r="F58">
+        <v>10499322.800000001</v>
+      </c>
+      <c r="G58">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" t="n">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>270</v>
       </c>
       <c r="C59" t="s">
         <v>64</v>
       </c>
-      <c r="D59" t="n">
-        <v>0.02194720134139061</v>
-      </c>
-      <c r="E59" t="n">
-        <v>10206244</v>
-      </c>
-      <c r="F59" t="n">
-        <v>11115371.2</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="D59">
+        <v>2.2926464676856991E-2</v>
+      </c>
+      <c r="E59">
+        <v>10125048.574999999</v>
+      </c>
+      <c r="F59">
+        <v>10930852.272500001</v>
+      </c>
+      <c r="G59">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" t="n">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>3090</v>
       </c>
       <c r="C60" t="s">
         <v>65</v>
       </c>
-      <c r="D60" t="n">
-        <v>0.05083640292286873</v>
-      </c>
-      <c r="E60" t="n">
-        <v>10992037.405</v>
-      </c>
-      <c r="F60" t="n">
-        <v>10251625.425</v>
-      </c>
-      <c r="G60" t="n">
-        <v>585</v>
+      <c r="D60">
+        <v>4.5013759285211563E-2</v>
+      </c>
+      <c r="E60">
+        <v>10992037.404999999</v>
+      </c>
+      <c r="F60">
+        <v>10136873.800000001</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" t="n">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>3490</v>
       </c>
       <c r="C61" t="s">
         <v>66</v>
       </c>
-      <c r="D61" t="n">
-        <v>0.02530431933701038</v>
-      </c>
-      <c r="E61" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F61" t="n">
-        <v>10163318.705</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="D61">
+        <v>2.2002693265676498E-2</v>
+      </c>
+      <c r="E61">
+        <v>10323911.24</v>
+      </c>
+      <c r="F61">
+        <v>10162230.09</v>
+      </c>
+      <c r="G61">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" t="n">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>60</v>
       </c>
       <c r="C62" t="s">
         <v>67</v>
       </c>
-      <c r="D62" t="n">
-        <v>0.009884237311780453</v>
-      </c>
-      <c r="E62" t="n">
-        <v>10148780.42</v>
-      </c>
-      <c r="F62" t="n">
-        <v>9859544.684999999</v>
-      </c>
-      <c r="G62" t="n">
+      <c r="D62">
+        <v>1.059227995574474E-2</v>
+      </c>
+      <c r="E62">
+        <v>10076711.25</v>
+      </c>
+      <c r="F62">
+        <v>10186364.75</v>
+      </c>
+      <c r="G62">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" t="n">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>4410</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
       </c>
-      <c r="D63" t="n">
-        <v>0.005356153473258018</v>
-      </c>
-      <c r="E63" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F63" t="n">
-        <v>9385877.35715</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
+      <c r="D63">
+        <v>4.8207021318376064E-3</v>
+      </c>
+      <c r="E63">
+        <v>9557336.5903000012</v>
+      </c>
+      <c r="F63">
+        <v>9557336.5903000012</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" t="n">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>950</v>
       </c>
       <c r="C64" t="s">
         <v>69</v>
       </c>
-      <c r="D64" t="n">
-        <v>0.02526926063001156</v>
-      </c>
-      <c r="E64" t="n">
-        <v>9877376.509999994</v>
-      </c>
-      <c r="F64" t="n">
-        <v>10197340.99</v>
-      </c>
-      <c r="G64" t="n">
-        <v>8</v>
+      <c r="D64">
+        <v>5.4120831191539757E-2</v>
+      </c>
+      <c r="E64">
+        <v>10195832.35</v>
+      </c>
+      <c r="F64">
+        <v>10195832.35</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" t="n">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>2000</v>
       </c>
       <c r="C65" t="s">
         <v>70</v>
       </c>
-      <c r="D65" t="n">
-        <v>0.008478086441755295</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11891425.63</v>
-      </c>
-      <c r="F65" t="n">
-        <v>13489463.525</v>
-      </c>
-      <c r="G65" t="n">
-        <v>152</v>
+      <c r="D65">
+        <v>2.4180516600608829E-2</v>
+      </c>
+      <c r="E65">
+        <v>9982803.125</v>
+      </c>
+      <c r="F65">
+        <v>13655378</v>
+      </c>
+      <c r="G65">
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" t="n">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>240</v>
       </c>
       <c r="C66" t="s">
         <v>71</v>
       </c>
-      <c r="D66" t="n">
-        <v>0.01608413457870483</v>
-      </c>
-      <c r="E66" t="n">
-        <v>9748946.145000001</v>
-      </c>
-      <c r="F66" t="n">
-        <v>9721682.297500001</v>
-      </c>
-      <c r="G66" t="n">
+      <c r="D66">
+        <v>1.5985675156116489E-2</v>
+      </c>
+      <c r="E66">
+        <v>9802577.5</v>
+      </c>
+      <c r="F66">
+        <v>9939644.375</v>
+      </c>
+      <c r="G66">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" t="n">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>5010</v>
       </c>
       <c r="C67" t="s">
         <v>72</v>
       </c>
-      <c r="D67" t="n">
-        <v>0.02485001459717751</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11128026.065</v>
-      </c>
-      <c r="F67" t="n">
-        <v>10432897.3175</v>
-      </c>
-      <c r="G67" t="n">
+      <c r="D67">
+        <v>2.1692974492907521E-2</v>
+      </c>
+      <c r="E67">
+        <v>11357401.25</v>
+      </c>
+      <c r="F67">
+        <v>11127421.852499999</v>
+      </c>
+      <c r="G67">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" t="n">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>1120</v>
       </c>
       <c r="C68" t="s">
         <v>73</v>
       </c>
-      <c r="D68" t="n">
-        <v>0.01126375701278448</v>
-      </c>
-      <c r="E68" t="n">
-        <v>9621792.154999999</v>
-      </c>
-      <c r="F68" t="n">
-        <v>9631342.9375</v>
-      </c>
-      <c r="G68" t="n">
-        <v>573</v>
+      <c r="D68">
+        <v>2.9556861147284511E-2</v>
+      </c>
+      <c r="E68">
+        <v>9888691.4550000001</v>
+      </c>
+      <c r="F68">
+        <v>9853403.9800000023</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" t="n">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>4060</v>
       </c>
       <c r="C69" t="s">
         <v>74</v>
       </c>
-      <c r="D69" t="n">
-        <v>0.005253087263554335</v>
-      </c>
-      <c r="E69" t="n">
-        <v>11026749.6159</v>
-      </c>
-      <c r="F69" t="n">
-        <v>9942808.9585</v>
-      </c>
-      <c r="G69" t="n">
-        <v>593</v>
+      <c r="D69">
+        <v>1.832926832139492E-2</v>
+      </c>
+      <c r="E69">
+        <v>10487980.276900001</v>
+      </c>
+      <c r="F69">
+        <v>9786641.9160999991</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" t="n">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>490</v>
       </c>
       <c r="C70" t="s">
         <v>75</v>
       </c>
-      <c r="D70" t="n">
-        <v>0.02651394717395306</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F70" t="n">
-        <v>10290747.038</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
+      <c r="D70">
+        <v>2.204905636608601E-2</v>
+      </c>
+      <c r="E70">
+        <v>10742578.842</v>
+      </c>
+      <c r="F70">
+        <v>10580835.668</v>
+      </c>
+      <c r="G70">
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" t="n">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>20</v>
       </c>
       <c r="C71" t="s">
         <v>76</v>
       </c>
-      <c r="D71" t="n">
-        <v>0.004060325678437948</v>
-      </c>
-      <c r="E71" t="n">
-        <v>9545693.380000001</v>
-      </c>
-      <c r="F71" t="n">
-        <v>9661024.1525</v>
-      </c>
-      <c r="G71" t="n">
-        <v>42</v>
+      <c r="D71">
+        <v>5.9634107165038594E-3</v>
+      </c>
+      <c r="E71">
+        <v>10012093.26</v>
+      </c>
+      <c r="F71">
+        <v>9662426.1774999984</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" t="n">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>150</v>
       </c>
       <c r="C72" t="s">
         <v>77</v>
       </c>
-      <c r="D72" t="n">
-        <v>0.01934557594358921</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F72" t="n">
-        <v>12672662.1</v>
-      </c>
-      <c r="G72" t="n">
+      <c r="D72">
+        <v>2.2128451615571979E-2</v>
+      </c>
+      <c r="E72">
+        <v>10430543.5</v>
+      </c>
+      <c r="F72">
+        <v>12609159.175000001</v>
+      </c>
+      <c r="G72">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" t="n">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>3410</v>
       </c>
       <c r="C73" t="s">
         <v>78</v>
       </c>
-      <c r="D73" t="n">
-        <v>0.06239166483283043</v>
-      </c>
-      <c r="E73" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F73" t="n">
-        <v>10346463.4925</v>
-      </c>
-      <c r="G73" t="n">
+      <c r="D73">
+        <v>5.3752895444631577E-2</v>
+      </c>
+      <c r="E73">
+        <v>10570830.528000001</v>
+      </c>
+      <c r="F73">
+        <v>11467360.914999999</v>
+      </c>
+      <c r="G73">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" t="n">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>2250</v>
       </c>
       <c r="C74" t="s">
         <v>79</v>
       </c>
-      <c r="D74" t="n">
-        <v>0.01722939684987068</v>
-      </c>
-      <c r="E74" t="n">
-        <v>10040567.86</v>
-      </c>
-      <c r="F74" t="n">
-        <v>10040567.86</v>
-      </c>
-      <c r="G74" t="n">
+      <c r="D74">
+        <v>4.2435556650161743E-2</v>
+      </c>
+      <c r="E74">
+        <v>10080773.215</v>
+      </c>
+      <c r="F74">
+        <v>10022175.977499999</v>
+      </c>
+      <c r="G74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" t="n">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>1800</v>
       </c>
       <c r="C75" t="s">
         <v>80</v>
       </c>
-      <c r="D75" t="n">
-        <v>0.04327986016869545</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9282936.647499999</v>
-      </c>
-      <c r="F75" t="n">
-        <v>9372512.65</v>
-      </c>
-      <c r="G75" t="n">
-        <v>374</v>
+      <c r="D75">
+        <v>7.0409618318080902E-2</v>
+      </c>
+      <c r="E75">
+        <v>9273425.7599999998</v>
+      </c>
+      <c r="F75">
+        <v>9273425.7599999998</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" t="n">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>700</v>
       </c>
       <c r="C76" t="s">
         <v>81</v>
       </c>
-      <c r="D76" t="n">
-        <v>0.01822230033576488</v>
-      </c>
-      <c r="E76" t="n">
-        <v>10116682.897</v>
-      </c>
-      <c r="F76" t="n">
-        <v>11434269.62</v>
-      </c>
-      <c r="G76" t="n">
-        <v>599</v>
+      <c r="D76">
+        <v>2.0289041101932529E-2</v>
+      </c>
+      <c r="E76">
+        <v>12503795.384</v>
+      </c>
+      <c r="F76">
+        <v>11935286.43</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" t="n">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>7570</v>
       </c>
       <c r="C77" t="s">
         <v>82</v>
       </c>
-      <c r="D77" t="n">
-        <v>0.01635920442640781</v>
-      </c>
-      <c r="E77" t="n">
-        <v>10291489.04</v>
-      </c>
-      <c r="F77" t="n">
-        <v>10307493.7525</v>
-      </c>
-      <c r="G77" t="n">
+      <c r="D77">
+        <v>2.8260992839932442E-2</v>
+      </c>
+      <c r="E77">
+        <v>10249139.365</v>
+      </c>
+      <c r="F77">
+        <v>10334635.4625</v>
+      </c>
+      <c r="G77">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" t="n">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>3780</v>
       </c>
       <c r="C78" t="s">
         <v>83</v>
       </c>
-      <c r="D78" t="n">
-        <v>0.01773491129279137</v>
-      </c>
-      <c r="E78" t="n">
-        <v>10897060.564</v>
-      </c>
-      <c r="F78" t="n">
-        <v>10800271.37</v>
-      </c>
-      <c r="G78" t="n">
+      <c r="D78">
+        <v>4.798811674118042E-2</v>
+      </c>
+      <c r="E78">
+        <v>10000000</v>
+      </c>
+      <c r="F78">
+        <v>10813650.946249999</v>
+      </c>
+      <c r="G78">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" t="n">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>140</v>
       </c>
       <c r="C79" t="s">
         <v>84</v>
       </c>
-      <c r="D79" t="n">
-        <v>0.003437087405472994</v>
-      </c>
-      <c r="E79" t="n">
-        <v>10131845.98</v>
-      </c>
-      <c r="F79" t="n">
-        <v>9708260.122</v>
-      </c>
-      <c r="G79" t="n">
+      <c r="D79">
+        <v>1.0799583978950981E-2</v>
+      </c>
+      <c r="E79">
+        <v>9780847.0075000003</v>
+      </c>
+      <c r="F79">
+        <v>9780847.0075000003</v>
+      </c>
+      <c r="G79">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" t="n">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>2300</v>
       </c>
       <c r="C80" t="s">
         <v>85</v>
       </c>
-      <c r="D80" t="n">
-        <v>0.008631540462374687</v>
-      </c>
-      <c r="E80" t="n">
-        <v>9676620.9825</v>
-      </c>
-      <c r="F80" t="n">
-        <v>9686520.399999999</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
+      <c r="D80">
+        <v>1.986024342477322E-2</v>
+      </c>
+      <c r="E80">
+        <v>10210362.237500001</v>
+      </c>
+      <c r="F80">
+        <v>9967042.4049999993</v>
+      </c>
+      <c r="G80">
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" t="n">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>370</v>
       </c>
       <c r="C81" t="s">
         <v>86</v>
       </c>
-      <c r="D81" t="n">
-        <v>0.00828045979142189</v>
-      </c>
-      <c r="E81" t="n">
-        <v>10050552.016</v>
-      </c>
-      <c r="F81" t="n">
-        <v>9669945.629999999</v>
-      </c>
-      <c r="G81" t="n">
+      <c r="D81">
+        <v>1.209524646401405E-2</v>
+      </c>
+      <c r="E81">
+        <v>10150741.504000001</v>
+      </c>
+      <c r="F81">
+        <v>9789850.5430000015</v>
+      </c>
+      <c r="G81">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" t="n">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>5380</v>
       </c>
       <c r="C82" t="s">
         <v>87</v>
       </c>
-      <c r="D82" t="n">
-        <v>0.03056014142930508</v>
-      </c>
-      <c r="E82" t="n">
-        <v>10371954</v>
-      </c>
-      <c r="F82" t="n">
-        <v>10325998</v>
-      </c>
-      <c r="G82" t="n">
-        <v>264</v>
+      <c r="D82">
+        <v>2.9077243059873581E-2</v>
+      </c>
+      <c r="E82">
+        <v>10172509.625</v>
+      </c>
+      <c r="F82">
+        <v>10366004</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" t="n">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>1460</v>
       </c>
       <c r="C83" t="s">
         <v>88</v>
       </c>
-      <c r="D83" t="n">
-        <v>0.06335184723138809</v>
-      </c>
-      <c r="E83" t="n">
+      <c r="D83">
+        <v>3.6072026938199997E-2</v>
+      </c>
+      <c r="E83">
         <v>10000000</v>
       </c>
-      <c r="F83" t="n">
-        <v>10459777.2</v>
-      </c>
-      <c r="G83" t="n">
+      <c r="F83">
+        <v>10516848.449999999</v>
+      </c>
+      <c r="G83">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" t="n">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>860</v>
       </c>
       <c r="C84" t="s">
         <v>89</v>
       </c>
-      <c r="D84" t="n">
-        <v>0.01081794314086437</v>
-      </c>
-      <c r="E84" t="n">
-        <v>10207418.7775</v>
-      </c>
-      <c r="F84" t="n">
-        <v>10225948.275</v>
-      </c>
-      <c r="G84" t="n">
-        <v>94</v>
+      <c r="D84">
+        <v>2.774220705032349E-2</v>
+      </c>
+      <c r="E84">
+        <v>10000000</v>
+      </c>
+      <c r="F84">
+        <v>10456858.359999999</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" t="n">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>1210</v>
       </c>
       <c r="C85" t="s">
         <v>90</v>
       </c>
-      <c r="D85" t="n">
-        <v>0.01355785597115755</v>
-      </c>
-      <c r="E85" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F85" t="n">
-        <v>10007355.4225</v>
-      </c>
-      <c r="G85" t="n">
+      <c r="D85">
+        <v>4.8250135034322739E-2</v>
+      </c>
+      <c r="E85">
+        <v>10020878.354</v>
+      </c>
+      <c r="F85">
+        <v>10020878.354</v>
+      </c>
+      <c r="G85">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" t="n">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>320</v>
       </c>
       <c r="C86" t="s">
         <v>91</v>
       </c>
-      <c r="D86" t="n">
-        <v>0.01967449113726616</v>
-      </c>
-      <c r="E86" t="n">
-        <v>9975245.91</v>
-      </c>
-      <c r="F86" t="n">
-        <v>9585446.74</v>
-      </c>
-      <c r="G86" t="n">
+      <c r="D86">
+        <v>3.5988491028547287E-2</v>
+      </c>
+      <c r="E86">
+        <v>9931014.7050000001</v>
+      </c>
+      <c r="F86">
+        <v>9618615.1150000002</v>
+      </c>
+      <c r="G86">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" t="n">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>210</v>
       </c>
       <c r="C87" t="s">
         <v>92</v>
       </c>
-      <c r="D87" t="n">
-        <v>0.02024967223405838</v>
-      </c>
-      <c r="E87" t="n">
-        <v>10081054.54</v>
-      </c>
-      <c r="F87" t="n">
-        <v>10127792.54</v>
-      </c>
-      <c r="G87" t="n">
+      <c r="D87">
+        <v>2.072453685104847E-2</v>
+      </c>
+      <c r="E87">
+        <v>10003592.289999999</v>
+      </c>
+      <c r="F87">
+        <v>10291223.75</v>
+      </c>
+      <c r="G87">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" t="n">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>1680</v>
       </c>
       <c r="C88" t="s">
         <v>93</v>
       </c>
-      <c r="D88" t="n">
-        <v>0.03887593001127243</v>
-      </c>
-      <c r="E88" t="n">
-        <v>9703757.524999999</v>
-      </c>
-      <c r="F88" t="n">
-        <v>9332033.609999999</v>
-      </c>
-      <c r="G88" t="n">
-        <v>595</v>
+      <c r="D88">
+        <v>4.0628626942634583E-2</v>
+      </c>
+      <c r="E88">
+        <v>9775379.227500001</v>
+      </c>
+      <c r="F88">
+        <v>9360129.0925000012</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" t="n">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>3540</v>
       </c>
       <c r="C89" t="s">
         <v>94</v>
       </c>
-      <c r="D89" t="n">
-        <v>0.01633663289248943</v>
-      </c>
-      <c r="E89" t="n">
-        <v>10224313.915</v>
-      </c>
-      <c r="F89" t="n">
-        <v>9926341.719999999</v>
-      </c>
-      <c r="G89" t="n">
+      <c r="D89">
+        <v>1.687572151422501E-2</v>
+      </c>
+      <c r="E89">
+        <v>10133088.41</v>
+      </c>
+      <c r="F89">
+        <v>10088566.1875</v>
+      </c>
+      <c r="G89">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" t="n">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>1790</v>
       </c>
       <c r="C90" t="s">
         <v>95</v>
       </c>
-      <c r="D90" t="n">
-        <v>0.02692131884396076</v>
-      </c>
-      <c r="E90" t="n">
-        <v>10092733.585</v>
-      </c>
-      <c r="F90" t="n">
-        <v>9563608.795</v>
-      </c>
-      <c r="G90" t="n">
+      <c r="D90">
+        <v>1.7799027264118191E-2</v>
+      </c>
+      <c r="E90">
+        <v>9626927.7575000022</v>
+      </c>
+      <c r="F90">
+        <v>9272958.3550000004</v>
+      </c>
+      <c r="G90">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" t="n">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>2900</v>
       </c>
       <c r="C91" t="s">
         <v>96</v>
       </c>
-      <c r="D91" t="n">
-        <v>0.02995616570115089</v>
-      </c>
-      <c r="E91" t="n">
-        <v>10088614.758</v>
-      </c>
-      <c r="F91" t="n">
-        <v>9459418.4365</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0</v>
+      <c r="D91">
+        <v>2.646516636013985E-2</v>
+      </c>
+      <c r="E91">
+        <v>10504900.120750001</v>
+      </c>
+      <c r="F91">
+        <v>10488989.06425</v>
+      </c>
+      <c r="G91">
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" t="n">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>5300</v>
       </c>
       <c r="C92" t="s">
         <v>97</v>
       </c>
-      <c r="D92" t="n">
-        <v>0.05884872749447823</v>
-      </c>
-      <c r="E92" t="n">
-        <v>9822047.050000001</v>
-      </c>
-      <c r="F92" t="n">
-        <v>10282591.75</v>
-      </c>
-      <c r="G92" t="n">
+      <c r="D92">
+        <v>5.2302956581115723E-2</v>
+      </c>
+      <c r="E92">
+        <v>9954697.4000000004</v>
+      </c>
+      <c r="F92">
+        <v>10136124.1</v>
+      </c>
+      <c r="G92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" t="n">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>6800</v>
       </c>
       <c r="C93" t="s">
         <v>98</v>
       </c>
-      <c r="D93" t="n">
-        <v>0.01785365864634514</v>
-      </c>
-      <c r="E93" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F93" t="n">
-        <v>10379191.0045</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0</v>
+      <c r="D93">
+        <v>2.0374177023768422E-2</v>
+      </c>
+      <c r="E93">
+        <v>10235239.158</v>
+      </c>
+      <c r="F93">
+        <v>10136148.808</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" t="n">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>2700</v>
       </c>
       <c r="C94" t="s">
         <v>99</v>
       </c>
-      <c r="D94" t="n">
-        <v>0.00292408000677824</v>
-      </c>
-      <c r="E94" t="n">
-        <v>9527273.752</v>
-      </c>
-      <c r="F94" t="n">
-        <v>9527273.752</v>
-      </c>
-      <c r="G94" t="n">
+      <c r="D94">
+        <v>7.3386700823903084E-3</v>
+      </c>
+      <c r="E94">
+        <v>9817674.6749999989</v>
+      </c>
+      <c r="F94">
+        <v>9817674.6749999989</v>
+      </c>
+      <c r="G94">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" t="n">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>10050</v>
       </c>
       <c r="C95" t="s">
         <v>100</v>
       </c>
-      <c r="D95" t="n">
-        <v>0.005268827546387911</v>
-      </c>
-      <c r="E95" t="n">
+      <c r="D95">
+        <v>4.9342871643602848E-3</v>
+      </c>
+      <c r="E95">
         <v>10000000</v>
       </c>
-      <c r="F95" t="n">
-        <v>10131658.9367</v>
-      </c>
-      <c r="G95" t="n">
+      <c r="F95">
+        <v>10386032.095899999</v>
+      </c>
+      <c r="G95">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" t="n">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>3200</v>
       </c>
       <c r="C96" t="s">
         <v>101</v>
       </c>
-      <c r="D96" t="n">
-        <v>0.04728329926729202</v>
-      </c>
-      <c r="E96" t="n">
-        <v>9360045.4</v>
-      </c>
-      <c r="F96" t="n">
-        <v>9046062.4</v>
-      </c>
-      <c r="G96" t="n">
+      <c r="D96">
+        <v>3.4608442336320877E-2</v>
+      </c>
+      <c r="E96">
+        <v>9533640.8499999978</v>
+      </c>
+      <c r="F96">
+        <v>9324110.9499999993</v>
+      </c>
+      <c r="G96">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" t="n">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>6220</v>
       </c>
       <c r="C97" t="s">
         <v>102</v>
       </c>
-      <c r="D97" t="n">
-        <v>0.04321271181106567</v>
-      </c>
-      <c r="E97" t="n">
-        <v>8984515.200000001</v>
-      </c>
-      <c r="F97" t="n">
-        <v>8984515.200000001</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0</v>
+      <c r="D97">
+        <v>3.7754993885755539E-2</v>
+      </c>
+      <c r="E97">
+        <v>9847490.5739999991</v>
+      </c>
+      <c r="F97">
+        <v>9005346.0649999995</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" t="n">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>6380</v>
       </c>
       <c r="C98" t="s">
         <v>103</v>
       </c>
-      <c r="D98" t="n">
-        <v>0.002711093053221703</v>
-      </c>
-      <c r="E98" t="n">
-        <v>9452854.507999999</v>
-      </c>
-      <c r="F98" t="n">
-        <v>9794631.562000001</v>
-      </c>
-      <c r="G98" t="n">
-        <v>596</v>
+      <c r="D98">
+        <v>3.049279330298305E-3</v>
+      </c>
+      <c r="E98">
+        <v>9821361.0120000001</v>
+      </c>
+      <c r="F98">
+        <v>9766544.5504999999</v>
+      </c>
+      <c r="G98">
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" t="n">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>6390</v>
       </c>
       <c r="C99" t="s">
         <v>104</v>
       </c>
-      <c r="D99" t="n">
-        <v>0.08769649267196655</v>
-      </c>
-      <c r="E99" t="n">
-        <v>9758138.490000002</v>
-      </c>
-      <c r="F99" t="n">
-        <v>8083696.15</v>
-      </c>
-      <c r="G99" t="n">
-        <v>591</v>
+      <c r="D99">
+        <v>7.5009278953075409E-2</v>
+      </c>
+      <c r="E99">
+        <v>10912359.835000001</v>
+      </c>
+      <c r="F99">
+        <v>9763591.7550000008</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" t="n">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>4800</v>
       </c>
       <c r="C100" t="s">
         <v>105</v>
       </c>
-      <c r="D100" t="n">
-        <v>0.03700054809451103</v>
-      </c>
-      <c r="E100" t="n">
-        <v>10849674.6275</v>
-      </c>
-      <c r="F100" t="n">
-        <v>11612724.4025</v>
-      </c>
-      <c r="G100" t="n">
+      <c r="D100">
+        <v>8.3491884171962738E-2</v>
+      </c>
+      <c r="E100">
+        <v>10000000</v>
+      </c>
+      <c r="F100">
+        <v>11679845.42</v>
+      </c>
+      <c r="G100">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" t="n">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>540</v>
       </c>
       <c r="C101" t="s">
         <v>106</v>
       </c>
-      <c r="D101" t="n">
-        <v>0.003685027826577425</v>
-      </c>
-      <c r="E101" t="n">
-        <v>10185882.0505</v>
-      </c>
-      <c r="F101" t="n">
-        <v>9630267.765999999</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0</v>
+      <c r="D101">
+        <v>9.737309068441391E-3</v>
+      </c>
+      <c r="E101">
+        <v>9407107.1119999979</v>
+      </c>
+      <c r="F101">
+        <v>9407107.1119999979</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="C102" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102">
+        <f>AVERAGE(D2:D91)</f>
+        <v>3.0060276383947995E-2</v>
+      </c>
+      <c r="E102">
+        <f>AVERAGE(E2:E101)</f>
+        <v>10071324.086967498</v>
+      </c>
+      <c r="F102">
+        <f>AVERAGE(F2:F101)</f>
+        <v>10131697.940758498</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>